--- a/replenishment_plan.xlsx
+++ b/replenishment_plan.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>107853</v>
+        <v>103453</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53728</v>
+        <v>54708</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LD131-BLUE</t>
+          <t>LD131-BLACK</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-06-02</t>
+          <t xml:space="preserve"> 05-04-01</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LD131-BLACK</t>
+          <t>LD131-BLUE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-04-01</t>
+          <t xml:space="preserve"> 05-06-02</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28363</v>
+        <v>28476</v>
       </c>
     </row>
     <row r="10">
@@ -692,47 +692,47 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6547</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LD105</t>
+          <t>KJA701</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4536</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KJA701</t>
+          <t>LD105</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4064</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2694</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="18">
@@ -798,27 +798,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KJA705</t>
+          <t>KJA417</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1774</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KJA20</t>
+          <t>KJA705</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,31 +828,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-08-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1765</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KJA417</t>
+          <t>KJA20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 05-08-02</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1681</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="22">
@@ -898,61 +898,61 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FC122606</t>
+          <t>LD130-F-GRE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-13-05</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VAS-SHORT</t>
+          <t xml:space="preserve"> 06-43-02-B</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1239</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BF-193A</t>
+          <t>FC122606</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 05-13-05</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> VAS-SHORT</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1229</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LD107</t>
+          <t>BF-193A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-14-04</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1196</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="27">
@@ -972,38 +972,38 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1145</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LD130-F-GRE</t>
+          <t>LD107</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-14-04</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-43-02-B</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1141</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BF-250</t>
+          <t>AF-10005</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1012,18 +1012,18 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1082</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AF-10005</t>
+          <t>BF-250</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1032,247 +1032,247 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1059</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FC120045</t>
+          <t>LD130-F-PIN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-12-05</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-58-02-B</t>
+          <t xml:space="preserve"> 06-44-01-A</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1026</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FC155412</t>
+          <t>KJA230-BL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-04-07</t>
+          <t xml:space="preserve"> 04-10-06</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 05-11-01</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>971</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LD130-F-MAR</t>
+          <t>FC120045</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-12-05</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-02-B</t>
+          <t xml:space="preserve"> 05-58-02-B</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>957</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LD130-F-PIN</t>
+          <t>FC155412</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-04-07</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-A</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>957</v>
+        <v>971</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LD130-F-GYE</t>
+          <t>LD130-F-MAR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-43-01-B</t>
+          <t xml:space="preserve"> 06-44-02-B</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FC124025</t>
+          <t>LD130-F-GYE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-04</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-43-01-B</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LD130-F-LBL</t>
+          <t>FC124025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 05-09-04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-45-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>921</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KJA230-BL</t>
+          <t>LD130-F-LGR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-06</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-11-01</t>
+          <t xml:space="preserve"> 05-50-02-A</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>909</v>
+        <v>939</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LD132-PC-RED</t>
+          <t>LD130-F-LPI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-06</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-02</t>
+          <t xml:space="preserve"> 06-46-03-A</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>886</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FC120894</t>
+          <t>LD130-F-PUR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-08</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-01-A</t>
+          <t xml:space="preserve"> 05-19-02</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>869</v>
+        <v>933</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LD130-F-LPI</t>
+          <t>LD132-PC-RED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-03-06</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-03-A</t>
+          <t xml:space="preserve"> 05-05-02</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>850</v>
+        <v>886</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LD130-F-PUR</t>
+          <t>FC120894</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 05-19-08</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-02</t>
+          <t xml:space="preserve"> 05-44-01-A</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>848</v>
+        <v>869</v>
       </c>
     </row>
     <row r="43">
@@ -1318,61 +1318,61 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LD130-F-LGR</t>
+          <t>LD130-F-LBL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-02-A</t>
+          <t xml:space="preserve"> 06-45-03-B</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>814</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FC154399</t>
+          <t>LD127</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-43-01-A</t>
+          <t xml:space="preserve"> 04-07-02</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LD127</t>
+          <t>FC154399</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-16-09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-02</t>
+          <t xml:space="preserve"> 05-43-01-A</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48">
@@ -1538,7 +1538,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KJA418</t>
+          <t>LD130-F-LVI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1548,51 +1548,51 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-44-03-A</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>593</v>
+        <v>636</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DF-004-80</t>
+          <t>KJA418</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-05</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>574</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LD130-F-LVI</t>
+          <t>DF-004-80</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-25-05</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-03-A</t>
+          <t xml:space="preserve"> 05-20-02</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="59">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62">
@@ -1818,41 +1818,41 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BF-006S-PI</t>
+          <t>LD128</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-01-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>437</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LD128</t>
+          <t>BF-006S-PI</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-32-01-B</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72">
@@ -1918,41 +1918,41 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DF-002A</t>
+          <t>KJW827W-BL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTFD</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>KJW827W-BL</t>
+          <t>DF-002A</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> KTFD</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77">
@@ -1978,17 +1978,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BV447</t>
+          <t>KJA1303-PI</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-07</t>
+          <t xml:space="preserve"> 04-20-03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-01-A</t>
+          <t xml:space="preserve"> 05-42-01-B</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1998,17 +1998,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>KJA1303-PI</t>
+          <t>BV447</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-20-03</t>
+          <t xml:space="preserve"> 04-16-07</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-B</t>
+          <t xml:space="preserve"> 05-41-01-A</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2458,17 +2458,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FC163020</t>
+          <t>KJA209-S</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-05</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2478,57 +2478,57 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>T7439</t>
+          <t>FC163020</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-53-04</t>
+          <t xml:space="preserve"> 05-28-05</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VAS-SHORT</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DF-001A</t>
+          <t>T7439</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 06-53-04</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTFD</t>
+          <t xml:space="preserve"> VAS-SHORT</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>KJA8613-BE</t>
+          <t>DF-001A</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> KTFD</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2538,77 +2538,77 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DF-002B</t>
+          <t>KJA8613-BE</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-38-05</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>KJB100-BL</t>
+          <t>DF-002B</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-04</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>KJA7317-GR</t>
+          <t>KJB100-BL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-07</t>
+          <t xml:space="preserve"> 04-15-04</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>KJA307-RE</t>
+          <t>KJA7317-GR</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-55-03</t>
+          <t xml:space="preserve"> 05-29-07</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-37-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2618,92 +2618,92 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>FC154351</t>
+          <t>KJA307-RE</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-05</t>
+          <t xml:space="preserve"> 05-55-03</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-46-03-A</t>
+          <t xml:space="preserve"> 05-37-02-A</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>LD124</t>
+          <t>FC154351</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 05-31-05</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-46-03-A</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FC123025</t>
+          <t>LD124</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-04-07</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PF-001A</t>
+          <t>FC123025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-04-07</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-19-02</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TOP-100</t>
+          <t>PF-001A</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2712,23 +2712,23 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CB-40001</t>
+          <t>TOP-100</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-17-06</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2738,21 +2738,21 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D-1(B)S</t>
+          <t>CB-40001</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 05-17-06</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117">
@@ -2778,72 +2778,72 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>KJA230-WH</t>
+          <t>D-1(B)S</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-53-06</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-21-01</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AC-21015-M</t>
+          <t>KJA230-WH</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 06-53-06</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-21-01</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CB-10007</t>
+          <t>AC-21015-M</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BF-640B</t>
+          <t>CB-10007</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2852,107 +2852,107 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>KJA7318-RE</t>
+          <t>BF-640B</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-06</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TOP-216</t>
+          <t>KJA7318-RE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-08</t>
+          <t xml:space="preserve"> 05-40-06</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>KJG808N</t>
+          <t>TOP-216</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-14-06</t>
+          <t xml:space="preserve"> 04-07-08</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-02-B</t>
+          <t xml:space="preserve"> 06-40-01-B</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DT-009</t>
+          <t>KJG808N</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-14-06</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-26-02-B</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FC891622</t>
+          <t>DT-009</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-33-03</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
@@ -2978,72 +2978,72 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FC154499</t>
+          <t>FC891622</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-09</t>
+          <t xml:space="preserve"> 05-33-03</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-64-02-A</t>
+          <t xml:space="preserve"> 05-22-02</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>KJA209-X</t>
+          <t>FC154499</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 05-32-09</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-64-02-A</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>C4982</t>
+          <t>LD125</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-09</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-07-02</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AA-31009</t>
+          <t>KJA209-X</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3052,38 +3052,38 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>KJA228-PI</t>
+          <t>C4982</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 04-08-09</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BF-19103</t>
+          <t>AA-31009</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3098,447 +3098,447 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DF-004</t>
+          <t>BF-19103</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPT</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>KJP352</t>
+          <t>KJA228-PI</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-21-07</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-02-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DF-001C</t>
+          <t>DF-004</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> KTPT</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>KJA245</t>
+          <t>KJP352</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-08</t>
+          <t xml:space="preserve"> 05-21-07</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-49-03-A</t>
+          <t xml:space="preserve"> 05-30-02-B</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BF-634A</t>
+          <t>DF-001C</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BV460</t>
+          <t>KJA245</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-06</t>
+          <t xml:space="preserve"> 04-08-08</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-02-B</t>
+          <t xml:space="preserve"> 04-49-03-A</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BF-14103-PI</t>
+          <t>BF-634A</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>KJA228-OR</t>
+          <t>BV460</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 04-16-06</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-06-01</t>
+          <t xml:space="preserve"> 06-40-02-B</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>FC891824</t>
+          <t>KJA228-OR</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-58-09</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-02</t>
+          <t xml:space="preserve"> 05-06-01</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>KJA8110-RE</t>
+          <t>BF-14103-PI</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-07</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BF-150-PI</t>
+          <t>FC891824</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 05-58-09</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-22-02</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>KJN511-BL</t>
+          <t>KJA8110-RE</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-05</t>
+          <t xml:space="preserve"> 05-29-07</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-34-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BF-117</t>
+          <t>BF-150-PI</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-08</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-53-03-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>KJQ316</t>
+          <t>BF-117</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-08-08</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-39-01-A</t>
+          <t xml:space="preserve"> 05-53-03-B</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AC-21015-L</t>
+          <t>KJN511-BL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 05-10-05</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-34-01-B</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PF-002A</t>
+          <t>AC-21015-L</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BV463</t>
+          <t>KJQ316</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-07</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-02-B</t>
+          <t xml:space="preserve"> 06-39-01-A</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FC122704</t>
+          <t>PF-002A</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-08</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PP005</t>
+          <t>KJA209-L</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-55-03-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BF-14103-BL</t>
+          <t>BV463</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-04</t>
+          <t xml:space="preserve"> 04-16-07</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-53-03-B</t>
+          <t xml:space="preserve"> 05-42-02-B</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PP001</t>
+          <t>FC122704</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 04-22-08</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FC118106</t>
+          <t>PP005</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-55-03-A</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PP009</t>
+          <t>PP001</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3548,57 +3548,57 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-55-03-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>KJB812C-PI</t>
+          <t>BF-14103-BL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-37-07</t>
+          <t xml:space="preserve"> 04-10-04</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-53-03-B</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>30782</t>
+          <t>LD130-F-LIB</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-39-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-17-02</t>
+          <t xml:space="preserve"> 05-41-02-B</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PLW06</t>
+          <t>FC118106</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3608,587 +3608,587 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>KJA8110-BK</t>
+          <t>PP009</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-34-06</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-55-03-A</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>AB-41011-B</t>
+          <t>30782</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 06-39-09</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-B</t>
+          <t xml:space="preserve"> 05-17-02</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BF-121-6</t>
+          <t>KJB812C-PI</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-37-07</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PLW01</t>
+          <t>PLW06</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-08</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-02-A</t>
+          <t xml:space="preserve"> 06-46-01-B</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PLW18</t>
+          <t>KJA8110-BK</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-05</t>
+          <t xml:space="preserve"> 06-34-06</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PP010</t>
+          <t>AB-41011-B</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-08</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-55-03-A</t>
+          <t xml:space="preserve"> 05-51-03-B</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BF-169A</t>
+          <t>BF-121-6</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PLW24</t>
+          <t>PLW01</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-05</t>
+          <t xml:space="preserve"> 05-03-08</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 06-29-02-A</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BF-138</t>
+          <t>PLW18</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-31-05</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-46-01-B</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LD130-F-BLU</t>
+          <t>BF-169A</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>KJN509-PI</t>
+          <t>PP010</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-05</t>
+          <t xml:space="preserve"> 05-03-08</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 04-55-03-A</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>KJN512-PI</t>
+          <t>PLW24</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-05</t>
+          <t xml:space="preserve"> 05-01-05</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-B</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>KJA230-PI</t>
+          <t>LD130-F-BLU</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-01</t>
+          <t xml:space="preserve"> 05-39-02-B</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LD130-F-WHI</t>
+          <t>KJN509-PI</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 05-10-05</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-01-A</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>KJN515-PI</t>
+          <t>BF-138</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PLW22</t>
+          <t>KJN512-PI</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-06</t>
+          <t xml:space="preserve"> 05-22-05</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-02-B</t>
+          <t xml:space="preserve"> 05-30-01-B</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PP004</t>
+          <t>KJA230-PI</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-10-01</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BF-632</t>
+          <t>LD130-F-WHI</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-05</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-39-01-A</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>KJ-F651-BL</t>
+          <t>PLW22</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 05-01-06</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-01-B</t>
+          <t xml:space="preserve"> 06-46-02-B</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>KJA246</t>
+          <t>KJN515-PI</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-09</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 04-50-03-A</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>KJF806C</t>
+          <t>PP004</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-03</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LD130-F-BLK</t>
+          <t>BF-632</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 04-10-05</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BV457</t>
+          <t>PF-001</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-09</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PLW23</t>
+          <t>KJ-F651-BL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-61-06</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-01-A</t>
+          <t xml:space="preserve"> 05-38-01-B</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>FC120042</t>
+          <t>KJA246</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-08</t>
+          <t xml:space="preserve"> 04-08-09</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>FC379012</t>
+          <t>LD130-F-BLK</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-07-03</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-18-02</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AC-21011M</t>
+          <t>KJF806C</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-04</t>
+          <t xml:space="preserve"> 05-31-03</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>KJN514-PI</t>
+          <t>BV457</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-06</t>
+          <t xml:space="preserve"> 04-16-09</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-B</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>KJC810M</t>
+          <t>FC120042</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 04-22-08</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4198,17 +4198,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BF-148-BL</t>
+          <t>AC-21011M</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-07-04</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4218,272 +4218,272 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BF-160A-1</t>
+          <t>PLW23</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-61-06</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-27-01-A</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AB-41020</t>
+          <t>KJC810M</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FC170640</t>
+          <t>KJN514-PI</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 05-25-06</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-02</t>
+          <t xml:space="preserve"> 04-50-03-B</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>KJN513-PI</t>
+          <t>FC379012</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-06-06</t>
+          <t xml:space="preserve"> 05-07-03</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-A</t>
+          <t xml:space="preserve"> 05-18-02</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>TOP-808G</t>
+          <t>BF-148-BL</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-05</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-39-02-B</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BF-160D</t>
+          <t>AB-41020</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-09</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-50-03-B</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AB-32011-B</t>
+          <t>BF-160A-1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>KJN512-BL</t>
+          <t>FC170640</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-05</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-A</t>
+          <t xml:space="preserve"> 05-20-02</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BF-160B</t>
+          <t>LD130-F-YEL</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-04</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>AC-22005S</t>
+          <t>TOP-808G</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-10-05</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BF-136</t>
+          <t>KJN513-PI</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 05-06-06</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-50-03-A</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DT-006A-1</t>
+          <t>BF-160D</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-10-09</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>NB-205G</t>
+          <t>KJN512-BL</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-07</t>
+          <t xml:space="preserve"> 05-22-05</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-B</t>
+          <t xml:space="preserve"> 05-30-01-A</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BF-150-BL</t>
+          <t>AB-32011-B</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4492,193 +4492,193 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>AA-12018</t>
+          <t>BF-160B</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-06</t>
+          <t xml:space="preserve"> 04-10-04</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-11-01</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>LD130-F-BRO</t>
+          <t>AC-22005S</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-01-B</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>KJN503-BL</t>
+          <t>BF-136</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-02-07</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-02-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>KJN514-BL</t>
+          <t>BF-150-BL</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TOP-707G</t>
+          <t>NB-205G</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-04-07</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-A</t>
+          <t xml:space="preserve"> 05-50-03-B</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BF-148-PI</t>
+          <t>AA-12018</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 05-32-06</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-A</t>
+          <t xml:space="preserve"> 06-11-01</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>FC118112</t>
+          <t>DT-006A-1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MB-16-85005</t>
+          <t>LD130-F-BRO</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-B</t>
+          <t xml:space="preserve"> 05-40-01-B</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>FC154363</t>
+          <t>KJN503-BL</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 05-02-07</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-56-03-B</t>
+          <t xml:space="preserve"> 06-29-02-A</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>KJF613</t>
+          <t>KJN514-BL</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4688,622 +4688,622 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-01-A</t>
+          <t xml:space="preserve"> 04-50-03-B</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>PLW27</t>
+          <t>BF-148-PI</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-05</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-01-B</t>
+          <t xml:space="preserve"> 05-51-03-A</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>KJA307-BL</t>
+          <t>TOP-707G</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-50-03-A</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CB-30002</t>
+          <t>BF-237B</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-18-09</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-31-01-A</t>
+          <t xml:space="preserve"> 05-51-03-A</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>KJB554-XL-WH</t>
+          <t>MB-16-85005</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-04</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-02</t>
+          <t xml:space="preserve"> 06-30-02-B</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>FC891418</t>
+          <t>FC118112</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-03</t>
+          <t xml:space="preserve"> 05-01-05</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-03-A</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>KJN515-BL</t>
+          <t>FC154363</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 04-56-03-B</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>KJB554-L-BL</t>
+          <t>KJA307-BL</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-07</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PLW07</t>
+          <t>KJF613</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-01-A</t>
+          <t xml:space="preserve"> 06-42-01-A</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PLW19</t>
+          <t>PLW27</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-33-07</t>
+          <t xml:space="preserve"> 05-26-05</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-43-03-A</t>
+          <t xml:space="preserve"> 05-27-01-B</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>KJD200-L BL</t>
+          <t>CB-30002</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-05</t>
+          <t xml:space="preserve"> 04-18-09</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 06-31-01-A</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>KJB554-S-PI</t>
+          <t>KJB554-XL-WH</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-36-08</t>
+          <t xml:space="preserve"> 05-03-04</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-02-B</t>
+          <t xml:space="preserve"> 05-09-02</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BP-868</t>
+          <t>KJB554-L-BL</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 05-38-07</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-01-A</t>
+          <t xml:space="preserve"> 05-09-02</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GCM79</t>
+          <t>FC891418</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-03</t>
+          <t xml:space="preserve"> 05-25-03</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-02-B</t>
+          <t xml:space="preserve"> 05-45-03-A</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BF-237B</t>
+          <t>KJN515-BL</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-A</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BF-239-PI</t>
+          <t>PLW07</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-33-01-A</t>
+          <t xml:space="preserve"> 06-29-01-A</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>KJB554-S-WH</t>
+          <t>PLW19</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-36-08</t>
+          <t xml:space="preserve"> 05-33-07</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-02-B</t>
+          <t xml:space="preserve"> 06-43-03-A</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>KJB554-S-BL</t>
+          <t>KJD200-L BL</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-36-08</t>
+          <t xml:space="preserve"> 04-10-05</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-02-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>FC1000-01BB</t>
+          <t>AF-10004</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FC120043</t>
+          <t>KJB554-S-PI</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 05-36-08</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-01-A</t>
+          <t xml:space="preserve"> 05-25-02-B</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>KJD200-M-PI</t>
+          <t>BP-868</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-02-B</t>
+          <t xml:space="preserve"> 06-30-01-A</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>KJD200-S-PI</t>
+          <t>LD102</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>FC189102</t>
+          <t>GCM79</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-13-03</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 05-49-02-B</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>FC1410501</t>
+          <t>BF-239-PI</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-54-06</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-33-01-A</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>KJA902</t>
+          <t>KJB554-S-BL</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-04</t>
+          <t xml:space="preserve"> 05-36-08</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-25-02-B</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>KJB554-XL-PI</t>
+          <t>KJB554-S-WH</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-07</t>
+          <t xml:space="preserve"> 05-36-08</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-04-02</t>
+          <t xml:space="preserve"> 05-25-02-B</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>FC574520</t>
+          <t>FC1000-01BB</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-57-09</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-01-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>CB-30001</t>
+          <t>FC120043</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-18-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-44-01-A</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>PLW21</t>
+          <t>KJD200-M-PI</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-B</t>
+          <t xml:space="preserve"> 05-26-02-B</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>AC-21011L</t>
+          <t>FC1410501</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-07</t>
+          <t xml:space="preserve"> 05-54-06</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ABB-B001-24</t>
+          <t>FC189102</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>LD101</t>
+          <t>KJA902</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-41-09</t>
+          <t xml:space="preserve"> 04-09-04</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5312,233 +5312,233 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>FC144501</t>
+          <t>KJD200-S-PI</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-30-02-A</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>KJB551-PI</t>
+          <t>AC-21011L</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-03</t>
+          <t xml:space="preserve"> 04-12-07</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BF-239-GR</t>
+          <t>KJB554-XL-PI</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-04</t>
+          <t xml:space="preserve"> 05-38-07</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-31-01-B</t>
+          <t xml:space="preserve"> 06-04-02</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>KJN507-PI</t>
+          <t>CB-30001</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 04-18-09</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>FC144506</t>
+          <t>ABB-B001-24</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>KJP402-WH</t>
+          <t>PLW21</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-09</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 06-30-02-B</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>PER-241</t>
+          <t>FC574520</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-08</t>
+          <t xml:space="preserve"> 05-57-09</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-28-01-B</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>KJD200-L-PI</t>
+          <t>LD101</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 06-41-09</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>DT006D-1</t>
+          <t>FC144506</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-06</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-12-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>FC126012</t>
+          <t>KJN507-PI</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 06-29-01-A</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>KJA901</t>
+          <t>BF-239-GR</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 04-13-04</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-31-01-B</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BF-147-BL</t>
+          <t>FC144501</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5548,217 +5548,217 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-36-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>KJB821T-PI</t>
+          <t>KJB551-PI</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-04</t>
+          <t xml:space="preserve"> 05-38-03</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-02-A</t>
+          <t xml:space="preserve"> 05-29-01-A</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>AA-31014</t>
+          <t>DT006D-1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-06</t>
+          <t xml:space="preserve"> 04-15-06</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-12-02</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FC144512</t>
+          <t>KJD200-L-PI</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-31-02-A</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>DF-001</t>
+          <t>KJP402-WH</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-12-09</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-02</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>FC575807</t>
+          <t>FC126012</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BC-30005</t>
+          <t>BF-147-BL</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-35-01-A</t>
+          <t xml:space="preserve"> 06-36-02-A</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BC-50006</t>
+          <t>AA-31014</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-09-06</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>FC1000-04</t>
+          <t>KJA901</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-45-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>AC-22005L</t>
+          <t>KJB821T-PI</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-14-09</t>
+          <t xml:space="preserve"> 06-46-04</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-38-02-A</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>FC115524</t>
+          <t>DF-001</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-02-B</t>
+          <t xml:space="preserve"> 05-22-02</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FC144511</t>
+          <t>FC575807</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5772,78 +5772,78 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ABB-B001-12</t>
+          <t>FC144512</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-03-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>KJA247</t>
+          <t>BC-50006</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-06</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>AB-32012-Y</t>
+          <t>BC-30005</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-35-01-A</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>FC144507</t>
+          <t>FC144511</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-03</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5858,7 +5858,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>FC120891</t>
+          <t>FC115524</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5868,102 +5868,102 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-01-B</t>
+          <t xml:space="preserve"> 05-41-02-B</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>FA-11002-L</t>
+          <t>FC1000-04</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-56-03</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-02-A</t>
+          <t xml:space="preserve"> 06-45-01-B</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AB-32012-O</t>
+          <t>AC-22005L</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 04-14-09</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>FC144508</t>
+          <t>ABB-B001-12</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-49-03-A</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>FC122812</t>
+          <t>KJA247</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-10-06</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-61-02-A</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>KJA1304-BL</t>
+          <t>FC144507</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-13-03</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5972,73 +5972,73 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>FC144505</t>
+          <t>AB-32012-Y</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>KJA1304-PI</t>
+          <t>AB-32012-O</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-03-01</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>FC118036</t>
+          <t>FA-11002-L</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 05-56-03</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-60-02-B</t>
+          <t xml:space="preserve"> 05-45-02-A</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FC220106</t>
+          <t>FC120891</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6048,47 +6048,47 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-03-B</t>
+          <t xml:space="preserve"> 05-45-01-B</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>HNT74</t>
+          <t>FC144508</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-35-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>FC115512</t>
+          <t>KJB100-WH</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -6098,17 +6098,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>LD125</t>
+          <t>KJA1304-BL</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -6118,27 +6118,27 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PLW12</t>
+          <t>HNT74</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-B</t>
+          <t xml:space="preserve"> 05-35-01-A</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>PLW13</t>
+          <t>KJA1304-PI</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6148,127 +6148,127 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-02-A</t>
+          <t xml:space="preserve"> 06-03-01</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>FC574500</t>
+          <t>FC122812</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-54-07</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 05-61-02-A</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>FC144504</t>
+          <t>FC115512</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BA-10020-B</t>
+          <t>FC144505</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-26-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>KJF615</t>
+          <t>FC220106</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-64-09</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-46-03-B</t>
+          <t xml:space="preserve"> 06-46-03-B</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>KJ-F653-PI</t>
+          <t>FC118036</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-55-07</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-33-01-A</t>
+          <t xml:space="preserve"> 05-60-02-B</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>AE-20014</t>
+          <t>KJ-F653-PI</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-04</t>
+          <t xml:space="preserve"> 06-55-07</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-02</t>
+          <t xml:space="preserve"> 06-33-01-A</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -6278,67 +6278,67 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>FC574522</t>
+          <t>FC144504</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-61-09</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>KJF804C</t>
+          <t>BA-10020-B</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 06-26-01-A</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>KJB801W</t>
+          <t>AE-20014</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 04-09-04</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-01-A</t>
+          <t xml:space="preserve"> 04-11-02</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>FC169612</t>
+          <t>PLW12</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6348,87 +6348,87 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-44-01-B</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>AA-12002</t>
+          <t>PLW13</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-02</t>
+          <t xml:space="preserve"> 06-28-02-A</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>GJW61</t>
+          <t>KJF615</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 06-64-09</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-46-03-B</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>KJF606</t>
+          <t>FC574500</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-64-09</t>
+          <t xml:space="preserve"> 05-54-07</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-01-A</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>KJB100-WH</t>
+          <t>KJF606</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 06-64-09</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-28-01-A</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -6438,17 +6438,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>KJA1215-BL</t>
+          <t>AA-12002</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-07</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-11-02</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -6458,17 +6458,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AH-20009-GR</t>
+          <t>KJF804C</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-03</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-A</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -6478,17 +6478,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>KJF614</t>
+          <t>AH-20009-GR</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-09</t>
+          <t xml:space="preserve"> 04-10-03</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-41-02-A</t>
+          <t xml:space="preserve"> 06-30-02-A</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -6498,17 +6498,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>FC154807</t>
+          <t>FC574521</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-09</t>
+          <t xml:space="preserve"> 06-63-04</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-02-B</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -6518,17 +6518,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>LG6082944</t>
+          <t>FC169612</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-06</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -6538,17 +6538,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>FC574521</t>
+          <t>FC154807</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-63-04</t>
+          <t xml:space="preserve"> 05-50-09</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 05-44-02-B</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -6558,52 +6558,52 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>AH-20007-GR</t>
+          <t>KJF614</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-03</t>
+          <t xml:space="preserve"> 05-44-09</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-32-01-B</t>
+          <t xml:space="preserve"> 06-41-02-A</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>AH-20009-BL</t>
+          <t>KJB801W</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-03</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-32-01-A</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>PER246</t>
+          <t>KJA1215-BL</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-06</t>
+          <t xml:space="preserve"> 04-15-07</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6612,83 +6612,83 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>TOP-193A-PI</t>
+          <t>FC574522</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-04</t>
+          <t xml:space="preserve"> 06-61-09</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-27-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>KJN830-WH</t>
+          <t>GJW61</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BA-10019-B</t>
+          <t>LG6082944</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-07</t>
+          <t xml:space="preserve"> 04-04-06</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-01-B</t>
+          <t xml:space="preserve"> 04-09-02</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>KJA045-BL</t>
+          <t>BA-10019-B</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-08</t>
+          <t xml:space="preserve"> 06-57-07</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-28-01-B</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -6698,17 +6698,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ABB-FW001-BL</t>
+          <t>PER246</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-58-07</t>
+          <t xml:space="preserve"> 06-57-06</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-26-02-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -6718,17 +6718,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BA-10019-M</t>
+          <t>ABB-FW001-BL</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-62-09</t>
+          <t xml:space="preserve"> 06-58-07</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 06-26-02-B</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -6738,17 +6738,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>AB-42011-G</t>
+          <t>KJA045-BL</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-56-07</t>
+          <t xml:space="preserve"> 06-57-08</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -6758,17 +6758,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>KJA407-PI</t>
+          <t>AH-20007-GR</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-61-08</t>
+          <t xml:space="preserve"> 06-57-03</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-34-02-B</t>
+          <t xml:space="preserve"> 06-32-01-B</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -6778,17 +6778,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>DRD92</t>
+          <t>AB-42011-G</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 09-03-04</t>
+          <t xml:space="preserve"> 06-56-07</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-B</t>
+          <t xml:space="preserve"> 05-49-03-A</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -6798,17 +6798,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>KJC453-GR</t>
+          <t>KJA407-PI</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-04</t>
+          <t xml:space="preserve"> 06-61-08</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 05-34-02-B</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -6818,17 +6818,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>KJA1301-MIX</t>
+          <t>TOP-193A-PI</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-08</t>
+          <t xml:space="preserve"> 06-57-04</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-27-02-B</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -6838,17 +6838,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>PER-245</t>
+          <t>BA-10019-M</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 06-62-09</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -6858,17 +6858,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>KJF603</t>
+          <t>AH-20009-BL</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 06-57-03</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-02-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -6878,17 +6878,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BA-10019-G</t>
+          <t>KJN830-WH</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-02-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -6898,17 +6898,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>KJF602</t>
+          <t>DRD92</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-09</t>
+          <t xml:space="preserve"> 09-03-04</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-34-01-A</t>
+          <t xml:space="preserve"> 05-29-01-B</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -6918,17 +6918,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>FC154421</t>
+          <t>KJC453-GR</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-46-04</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-A</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -6938,17 +6938,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>TOP-193A-BL</t>
+          <t>KJA1301-MIX</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-20-09</t>
+          <t xml:space="preserve"> 04-22-08</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -6958,17 +6958,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>FC220081</t>
+          <t>PER-245</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-03</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-52-02-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -6978,17 +6978,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>KJ-F652-BL</t>
+          <t>KJF603</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-09</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-A</t>
+          <t xml:space="preserve"> 06-42-02-A</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -6998,17 +6998,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PLW28</t>
+          <t>BA-10019-G</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-23-09</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 06-28-02-A</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -7018,17 +7018,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>CGM43</t>
+          <t>KJF602</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-06</t>
+          <t xml:space="preserve"> 04-12-09</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-B</t>
+          <t xml:space="preserve"> 06-34-01-A</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -7038,17 +7038,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>DGH82</t>
+          <t>FC220081</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-13-03</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-52-02-B</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -7058,7 +7058,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>FC169624</t>
+          <t>FC154421</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 06-44-01-A</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -7078,17 +7078,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>FC574511</t>
+          <t>TOP-193A-BL</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-20-09</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -7098,87 +7098,87 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>AC-21015-S</t>
+          <t>KJ-F652-BL</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-22-09</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-01</t>
+          <t xml:space="preserve"> 06-30-02-A</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PF-001</t>
+          <t>PLW28</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 05-23-09</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>KJA209-S</t>
+          <t>CGM43</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 05-28-06</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-29-01-B</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>KJA209-L</t>
+          <t>DGH82</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>LD102</t>
+          <t>FC169624</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7188,47 +7188,47 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>AF-10004</t>
+          <t>FC574511</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-30-01-A</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>KJA228-BL</t>
+          <t>AC-21015-S</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-05-01</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -7238,17 +7238,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>LD130-F-LIB</t>
+          <t>PER-241</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-10-08</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-02-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -7258,17 +7258,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>LD130-F-YEL</t>
+          <t>KJA228-BL</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D342" t="n">

--- a/replenishment_plan.xlsx
+++ b/replenishment_plan.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>103453</v>
+        <v>107853</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>70735</v>
+        <v>61412</v>
       </c>
     </row>
     <row r="6">
@@ -698,41 +698,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KJA701</t>
+          <t>LD105</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4860</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LD105</t>
+          <t>KJA701</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4751</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2543</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="18">
@@ -798,27 +798,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KJA417</t>
+          <t>KJA705</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1885</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KJA705</t>
+          <t>KJA20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,31 +828,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-08-02</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1774</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KJA20</t>
+          <t>KJA417</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-08-02</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1765</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="22">
@@ -898,112 +898,112 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LD130-F-GRE</t>
+          <t>FC122606</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-13-05</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-43-02-B</t>
+          <t xml:space="preserve"> VAS-SHORT</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1246</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FC122606</t>
+          <t>BF-193A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-13-05</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VAS-SHORT</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BF-193A</t>
+          <t>LD130-F-ORN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-42-01-A</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LD130-F-ORN</t>
+          <t>LD107</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-14-04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-01-A</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1225</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LD107</t>
+          <t>LD130-F-GRE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-14-04</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 06-43-02-B</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1196</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AF-10005</t>
+          <t>BF-250</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1012,18 +1012,18 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1098</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BF-250</t>
+          <t>AF-10005</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1032,93 +1032,93 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1082</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LD130-F-PIN</t>
+          <t>KJA230-BL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-10-06</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-A</t>
+          <t xml:space="preserve"> 05-11-01</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KJA230-BL</t>
+          <t>FC120045</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-06</t>
+          <t xml:space="preserve"> 05-12-05</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-11-01</t>
+          <t xml:space="preserve"> 05-58-02-B</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FC120045</t>
+          <t>FC155412</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-12-05</t>
+          <t xml:space="preserve"> 05-04-07</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-58-02-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1026</v>
+        <v>971</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FC155412</t>
+          <t>LD130-F-MAR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-04-07</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 06-44-02-B</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>971</v>
+        <v>957</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LD130-F-MAR</t>
+          <t>LD130-F-PIN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-02-B</t>
+          <t xml:space="preserve"> 06-44-01-A</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1178,81 +1178,81 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LD130-F-LGR</t>
+          <t>LD130-F-PUR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-02-A</t>
+          <t xml:space="preserve"> 05-19-02</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LD130-F-LPI</t>
+          <t>LD130-F-LBL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-03-A</t>
+          <t xml:space="preserve"> 06-45-03-B</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>934</v>
+        <v>921</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LD130-F-PUR</t>
+          <t>LD132-PC-RED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 05-03-06</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-02</t>
+          <t xml:space="preserve"> 05-05-02</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>933</v>
+        <v>886</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LD132-PC-RED</t>
+          <t>LD130-F-LPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-06</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-02</t>
+          <t xml:space="preserve"> 06-46-03-A</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>886</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>869</v>
+        <v>850</v>
       </c>
     </row>
     <row r="43">
@@ -1318,61 +1318,61 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LD130-F-LBL</t>
+          <t>LD130-F-LGR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-45-03-B</t>
+          <t xml:space="preserve"> 05-50-02-A</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>839</v>
+        <v>814</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LD127</t>
+          <t>FC154399</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-16-09</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-02</t>
+          <t xml:space="preserve"> 05-43-01-A</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FC154399</t>
+          <t>LD127</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-43-01-A</t>
+          <t xml:space="preserve"> 04-07-02</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48">
@@ -1458,107 +1458,107 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KJA419</t>
+          <t>LD130-F-LEG</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 06-43-03-B</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LD130-F-LEG</t>
+          <t>AB-41011-G</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-09-06</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-43-03-B</t>
+          <t xml:space="preserve"> 05-51-02-B</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AB-41011-G</t>
+          <t>LD108</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-06</t>
+          <t xml:space="preserve"> 04-10-09</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LD108</t>
+          <t>KJA418</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>639</v>
+        <v>593</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LD130-F-LVI</t>
+          <t>DF-004-80</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-25-05</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-03-A</t>
+          <t xml:space="preserve"> 05-20-02</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>636</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KJA418</t>
+          <t>LD130-F-LVI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1568,102 +1568,102 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-44-03-A</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>593</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DF-004-80</t>
+          <t>KJA225-BL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-05</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-02</t>
+          <t xml:space="preserve"> 05-39-02-A</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>KJA225-BL</t>
+          <t>LD118</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LD118</t>
+          <t>KJA025-PI</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-38-01-A</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KJA025-PI</t>
+          <t>DF-004B</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DF-004B</t>
+          <t>LD119</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1672,18 +1672,18 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LD119</t>
+          <t>PF-003A</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1692,18 +1692,18 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>511</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PF-003A</t>
+          <t>DF-004C</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1712,18 +1712,18 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DF-004C</t>
+          <t>CE-21001-1B</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-18-09</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1732,107 +1732,107 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CE-21001-1B</t>
+          <t>KJA025-BL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-18-09</t>
+          <t xml:space="preserve"> 04-16-04</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>482</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KJA025-BL</t>
+          <t>BF-006S-BL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-04</t>
+          <t xml:space="preserve"> 04-09-06</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BF-006S-BL</t>
+          <t>FC154321</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-06</t>
+          <t xml:space="preserve"> 04-16-06</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-56-03-B</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FC154321</t>
+          <t>KJA419</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-06</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-56-03-B</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LD128</t>
+          <t>KJA228-BL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71">
@@ -1858,101 +1858,101 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FC163620</t>
+          <t>LD128</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-05</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-02-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>397</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BV434</t>
+          <t>FC163620</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-07</t>
+          <t xml:space="preserve"> 05-01-05</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-02-A</t>
+          <t xml:space="preserve"> 05-45-02-B</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PP002</t>
+          <t>BV434</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-09</t>
+          <t xml:space="preserve"> 04-16-07</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-43-02-A</t>
+          <t xml:space="preserve"> 05-42-02-A</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>KJW827W-BL</t>
+          <t>PP002</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 05-25-09</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 06-43-02-A</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DF-002A</t>
+          <t>KJW827W-BL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTFD</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77">
@@ -1978,17 +1978,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KJA1303-PI</t>
+          <t>BV447</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-20-03</t>
+          <t xml:space="preserve"> 04-16-07</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-B</t>
+          <t xml:space="preserve"> 05-41-01-A</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1998,41 +1998,41 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BV447</t>
+          <t>PP007</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-07</t>
+          <t xml:space="preserve"> 05-05-08</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-01-A</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PP007</t>
+          <t>KJA1303-PI</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-08</t>
+          <t xml:space="preserve"> 04-20-03</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 05-42-01-B</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81">
@@ -2178,41 +2178,41 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FC575813</t>
+          <t>KJA1303-BL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-33-07</t>
+          <t xml:space="preserve"> 05-15-04</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-02-A</t>
+          <t xml:space="preserve"> 05-40-02-A</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>KJA1303-BL</t>
+          <t>FC575813</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-15-04</t>
+          <t xml:space="preserve"> 05-33-07</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-A</t>
+          <t xml:space="preserve"> 05-42-02-A</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90">
@@ -2258,112 +2258,112 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>98066</t>
+          <t>DF-002A</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-06</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-02</t>
+          <t xml:space="preserve"> KTFD</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AB-41012-B</t>
+          <t>98066</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-04</t>
+          <t xml:space="preserve"> 04-04-06</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-A</t>
+          <t xml:space="preserve"> 04-09-02</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FC122604</t>
+          <t>AB-41012-B</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 04-10-04</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-52-03-A</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PP003</t>
+          <t>FC122604</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-24-06</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-02-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DF-001B</t>
+          <t>PP003</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-24-06</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-41-02-B</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KJB100-PI</t>
+          <t>DF-001B</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-04</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2372,107 +2372,107 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GT401</t>
+          <t>KJB100-PI</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-07</t>
+          <t xml:space="preserve"> 04-15-04</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>KJB100-GR</t>
+          <t>GT401</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-09</t>
+          <t xml:space="preserve"> 04-16-07</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-02</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PF-003-80</t>
+          <t>KJB100-GR</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-14-07</t>
+          <t xml:space="preserve"> 04-12-09</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-02-B</t>
+          <t xml:space="preserve"> 05-20-02</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PP006</t>
+          <t>PF-003-80</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-04-08</t>
+          <t xml:space="preserve"> 05-14-07</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-26-02-B</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>KJA209-S</t>
+          <t>PP006</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 05-04-08</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103">
@@ -2498,41 +2498,41 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>T7439</t>
+          <t>KJA209-S</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-53-04</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VAS-SHORT</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DF-001A</t>
+          <t>T7439</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 06-53-04</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTFD</t>
+          <t xml:space="preserve"> VAS-SHORT</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106">
@@ -3078,12 +3078,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AA-31009</t>
+          <t>KJA228-PI</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3098,12 +3098,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BF-19103</t>
+          <t>AA-31009</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3118,12 +3118,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>KJA228-PI</t>
+          <t>BF-19103</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3538,17 +3538,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PP001</t>
+          <t>BF-14103-BL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 04-10-04</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-53-03-B</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3558,17 +3558,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BF-14103-BL</t>
+          <t>PP001</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-04</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-53-03-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3698,17 +3698,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>KJA8110-BK</t>
+          <t>DF-001A</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-34-06</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> KTFD</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3718,81 +3718,81 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AB-41011-B</t>
+          <t>KJA8110-BK</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 06-34-06</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BF-121-6</t>
+          <t>AB-41011-B</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-51-03-B</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PLW01</t>
+          <t>BF-121-6</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-08</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-02-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PLW18</t>
+          <t>PLW01</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-05</t>
+          <t xml:space="preserve"> 05-03-08</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-01-B</t>
+          <t xml:space="preserve"> 06-29-02-A</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169">
@@ -3818,17 +3818,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PP010</t>
+          <t>PLW18</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-08</t>
+          <t xml:space="preserve"> 05-31-05</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-55-03-A</t>
+          <t xml:space="preserve"> 06-46-01-B</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3838,37 +3838,37 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PLW24</t>
+          <t>PP010</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-05</t>
+          <t xml:space="preserve"> 05-03-08</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 04-55-03-A</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LD130-F-BLU</t>
+          <t>KJN512-PI</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-22-05</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-B</t>
+          <t xml:space="preserve"> 05-30-01-B</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3878,17 +3878,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>KJN509-PI</t>
+          <t>BF-138</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-05</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3898,17 +3898,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BF-138</t>
+          <t>LD130-F-BLU</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-39-02-B</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3918,17 +3918,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>KJN512-PI</t>
+          <t>KJN509-PI</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-05</t>
+          <t xml:space="preserve"> 05-10-05</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-B</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3938,37 +3938,37 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>KJA230-PI</t>
+          <t>PLW24</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-01-05</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-01</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>LD130-F-WHI</t>
+          <t>KJA230-PI</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-01-A</t>
+          <t xml:space="preserve"> 05-10-01</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3978,37 +3978,37 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PLW22</t>
+          <t>LD130-F-WHI</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-06</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-02-B</t>
+          <t xml:space="preserve"> 05-39-01-A</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>KJN515-PI</t>
+          <t>PLW22</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 05-01-06</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-A</t>
+          <t xml:space="preserve"> 06-46-02-B</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4018,41 +4018,41 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PP004</t>
+          <t>KJN515-PI</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-50-03-A</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BF-632</t>
+          <t>PP004</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-05</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182">
@@ -4078,21 +4078,21 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>KJ-F651-BL</t>
+          <t>BF-632</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 04-10-05</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-01-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184">
@@ -4118,21 +4118,21 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LD130-F-BLK</t>
+          <t>KJ-F651-BL</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 05-38-01-B</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
@@ -4158,17 +4158,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BV457</t>
+          <t>LD130-F-BLK</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-09</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4178,12 +4178,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FC120042</t>
+          <t>BV457</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-08</t>
+          <t xml:space="preserve"> 04-16-09</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4192,23 +4192,23 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>AC-21011M</t>
+          <t>KJN514-PI</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-04</t>
+          <t xml:space="preserve"> 05-25-06</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-50-03-B</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4218,17 +4218,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PLW23</t>
+          <t>FC120042</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-61-06</t>
+          <t xml:space="preserve"> 04-22-08</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-01-A</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4238,17 +4238,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>KJC810M</t>
+          <t>FC379012</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 05-07-03</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-18-02</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4258,17 +4258,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>KJN514-PI</t>
+          <t>KJC810M</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-06</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4278,17 +4278,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FC379012</t>
+          <t>BF-148-BL</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-07-03</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-18-02</t>
+          <t xml:space="preserve"> 05-39-02-B</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4298,17 +4298,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BF-148-BL</t>
+          <t>PLW23</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 05-61-06</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-B</t>
+          <t xml:space="preserve"> 05-27-01-A</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4318,27 +4318,27 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AB-41020</t>
+          <t>AC-21011M</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-07-04</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BF-160A-1</t>
+          <t>AB-41020</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-50-03-B</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -4358,17 +4358,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FC170640</t>
+          <t>BF-160A-1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4378,37 +4378,37 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>LD130-F-YEL</t>
+          <t>FC170640</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 05-20-02</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>TOP-808G</t>
+          <t>KJN513-PI</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-05</t>
+          <t xml:space="preserve"> 05-06-06</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-50-03-A</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4418,21 +4418,21 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>KJN513-PI</t>
+          <t>AB-32011-B</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-06-06</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201">
@@ -4478,32 +4478,32 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>AB-32011-B</t>
+          <t>BF-160B</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 04-10-04</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BF-160B</t>
+          <t>BF-136</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-04</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4538,37 +4538,37 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BF-136</t>
+          <t>DT-006A-1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BF-150-BL</t>
+          <t>AA-12018</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 05-32-06</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-11-01</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4598,17 +4598,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>AA-12018</t>
+          <t>BF-150-BL</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-06</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-11-01</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4618,37 +4618,37 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>DT-006A-1</t>
+          <t>LD130-F-BRO</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-40-01-B</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>LD130-F-BRO</t>
+          <t>KJN514-BL</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-01-B</t>
+          <t xml:space="preserve"> 04-50-03-B</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -4678,32 +4678,32 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>KJN514-BL</t>
+          <t>TOP-707G</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-B</t>
+          <t xml:space="preserve"> 05-50-03-A</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BF-148-PI</t>
+          <t>BF-237B</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4718,17 +4718,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>TOP-707G</t>
+          <t>BF-148-PI</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-A</t>
+          <t xml:space="preserve"> 05-51-03-A</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4738,97 +4738,97 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BF-237B</t>
+          <t>MB-16-85005</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-A</t>
+          <t xml:space="preserve"> 06-30-02-B</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MB-16-85005</t>
+          <t>FC154363</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-B</t>
+          <t xml:space="preserve"> 04-56-03-B</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>FC118112</t>
+          <t>KJF613</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-05</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 06-42-01-A</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>FC154363</t>
+          <t>KJA307-BL</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-56-03-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>KJA307-BL</t>
+          <t>PLW27</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 05-26-05</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-27-01-B</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -4838,81 +4838,81 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>KJF613</t>
+          <t>CB-30002</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 04-18-09</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-01-A</t>
+          <t xml:space="preserve"> 06-31-01-A</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PLW27</t>
+          <t>KJB554-XL-WH</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-05</t>
+          <t xml:space="preserve"> 05-03-04</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-01-B</t>
+          <t xml:space="preserve"> 05-09-02</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CB-30002</t>
+          <t>KJN515-BL</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-18-09</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-31-01-A</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>KJB554-XL-WH</t>
+          <t>FC118112</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-04</t>
+          <t xml:space="preserve"> 05-01-05</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
@@ -4958,37 +4958,37 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>KJN515-BL</t>
+          <t>PLW07</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 06-29-01-A</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PLW07</t>
+          <t>PLW19</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 05-33-07</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-01-A</t>
+          <t xml:space="preserve"> 06-43-03-A</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4998,21 +4998,21 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PLW19</t>
+          <t>AF-10004</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-33-07</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-43-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230">
@@ -5038,37 +5038,37 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AF-10004</t>
+          <t>GCM79</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-13-03</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-49-02-B</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>KJB554-S-PI</t>
+          <t>LD102</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-36-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -5098,17 +5098,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>LD102</t>
+          <t>KJB554-S-PI</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 05-36-08</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-25-02-B</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -5118,41 +5118,41 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>GCM79</t>
+          <t>BF-239-PI</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-03</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-02-B</t>
+          <t xml:space="preserve"> 06-33-01-A</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BF-239-PI</t>
+          <t>KJB554-S-WH</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-36-08</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-33-01-A</t>
+          <t xml:space="preserve"> 05-25-02-B</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237">
@@ -5178,21 +5178,21 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>KJB554-S-WH</t>
+          <t>FC120043</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-36-08</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-02-B</t>
+          <t xml:space="preserve"> 05-44-01-A</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -5218,57 +5218,57 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>FC120043</t>
+          <t>KJD200-M-PI</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-01-A</t>
+          <t xml:space="preserve"> 05-26-02-B</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>KJD200-M-PI</t>
+          <t>FC189102</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-02-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>FC1410501</t>
+          <t>KJD200-S-PI</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-54-06</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-30-02-A</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -5278,17 +5278,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>FC189102</t>
+          <t>KJA902</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-09-04</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -5298,12 +5298,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>KJA902</t>
+          <t>FC1410501</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-04</t>
+          <t xml:space="preserve"> 05-54-06</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5318,37 +5318,37 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>KJD200-S-PI</t>
+          <t>KJB554-XL-PI</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 05-38-07</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-02-A</t>
+          <t xml:space="preserve"> 06-04-02</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>AC-21011L</t>
+          <t>FC574520</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-07</t>
+          <t xml:space="preserve"> 05-57-09</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-28-01-B</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -5358,17 +5358,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>KJB554-XL-PI</t>
+          <t>ABB-B001-24</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-07</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-04-02</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -5378,17 +5378,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CB-30001</t>
+          <t>PLW21</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-18-09</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-30-02-B</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -5398,17 +5398,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ABB-B001-24</t>
+          <t>AC-21011L</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-12-07</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -5418,17 +5418,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>PLW21</t>
+          <t>CB-30001</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 04-18-09</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -5438,37 +5438,37 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>FC574520</t>
+          <t>FC144501</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-57-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-01-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>LD101</t>
+          <t>KJN507-PI</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-41-09</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-29-01-A</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -5498,17 +5498,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>KJN507-PI</t>
+          <t>LD101</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 06-41-09</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-01-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -5518,17 +5518,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BF-239-GR</t>
+          <t>KJB551-PI</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-04</t>
+          <t xml:space="preserve"> 05-38-03</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-31-01-B</t>
+          <t xml:space="preserve"> 05-29-01-A</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -5538,57 +5538,57 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>FC144501</t>
+          <t>FC126012</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>KJB551-PI</t>
+          <t>KJP402-WH</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-03</t>
+          <t xml:space="preserve"> 04-12-09</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-A</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>DT006D-1</t>
+          <t>PER-241</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-06</t>
+          <t xml:space="preserve"> 04-10-08</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-12-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -5598,17 +5598,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>KJD200-L-PI</t>
+          <t>DT006D-1</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-15-06</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-02-A</t>
+          <t xml:space="preserve"> 06-12-02</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -5618,41 +5618,41 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>KJP402-WH</t>
+          <t>KJA901</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-09</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>FC126012</t>
+          <t>AA-31014</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-09-06</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262">
@@ -5678,17 +5678,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AA-31014</t>
+          <t>KJD200-L-PI</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-06</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-31-02-A</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -5698,17 +5698,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>KJA901</t>
+          <t>KJB821T-PI</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 06-46-04</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-38-02-A</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -5718,37 +5718,37 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>KJB821T-PI</t>
+          <t>BC-50006</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-04</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-02-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>DF-001</t>
+          <t>FC144512</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -5758,17 +5758,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FC575807</t>
+          <t>DF-001</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-22-02</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -5778,17 +5778,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>FC144512</t>
+          <t>BC-30005</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-35-01-A</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -5798,17 +5798,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BC-50006</t>
+          <t>FC575807</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -5818,21 +5818,21 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>BC-30005</t>
+          <t>FC1000-04</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-35-01-A</t>
+          <t xml:space="preserve"> 06-45-01-B</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271">
@@ -5878,17 +5878,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>FC1000-04</t>
+          <t>ABB-B001-12</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-45-01-B</t>
+          <t xml:space="preserve"> 05-49-03-A</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5918,17 +5918,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ABB-B001-12</t>
+          <t>KJA247</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-10-06</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-03-A</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -5938,17 +5938,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>KJA247</t>
+          <t>AB-32012-Y</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-06</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -5978,37 +5978,37 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>AB-32012-Y</t>
+          <t>FC144508</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>AB-32012-O</t>
+          <t>FC120891</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-45-01-B</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -6018,17 +6018,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>FA-11002-L</t>
+          <t>AB-32012-O</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-56-03</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -6038,17 +6038,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FC120891</t>
+          <t>FA-11002-L</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 05-56-03</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-01-B</t>
+          <t xml:space="preserve"> 05-45-02-A</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -6058,12 +6058,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>FC144508</t>
+          <t>KJA1304-BL</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6072,23 +6072,23 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>KJB100-WH</t>
+          <t>FC144505</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -6098,17 +6098,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>KJA1304-BL</t>
+          <t>FC118036</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-60-02-B</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -6118,17 +6118,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>HNT74</t>
+          <t>FC220106</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-35-01-A</t>
+          <t xml:space="preserve"> 06-46-03-B</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -6138,17 +6138,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>KJA1304-PI</t>
+          <t>FC115512</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-03-01</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -6178,17 +6178,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>FC115512</t>
+          <t>HNT74</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 05-35-01-A</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -6198,17 +6198,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>FC144505</t>
+          <t>KJA1304-PI</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-03-01</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -6218,57 +6218,57 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>FC220106</t>
+          <t>KJF615</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 06-64-09</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-03-B</t>
+          <t xml:space="preserve"> 05-46-03-B</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>FC118036</t>
+          <t>KJ-F653-PI</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 06-55-07</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-60-02-B</t>
+          <t xml:space="preserve"> 06-33-01-A</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>KJ-F653-PI</t>
+          <t>FC144504</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-55-07</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-33-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -6278,7 +6278,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>FC144504</t>
+          <t>PLW12</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-44-01-B</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -6298,17 +6298,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BA-10020-B</t>
+          <t>PLW13</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-26-01-A</t>
+          <t xml:space="preserve"> 06-28-02-A</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -6318,17 +6318,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>AE-20014</t>
+          <t>FC574500</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-04</t>
+          <t xml:space="preserve"> 05-54-07</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-02</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -6338,17 +6338,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>PLW12</t>
+          <t>AE-20014</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-09-04</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-B</t>
+          <t xml:space="preserve"> 04-11-02</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -6358,17 +6358,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>PLW13</t>
+          <t>BA-10020-B</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-02-A</t>
+          <t xml:space="preserve"> 06-26-01-A</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -6378,17 +6378,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>KJF615</t>
+          <t>BF-239-GR</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-64-09</t>
+          <t xml:space="preserve"> 04-13-04</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-46-03-B</t>
+          <t xml:space="preserve"> 06-31-01-B</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -6398,37 +6398,37 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>FC574500</t>
+          <t>FC574522</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-54-07</t>
+          <t xml:space="preserve"> 06-61-09</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>KJF606</t>
+          <t>KJA1215-BL</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-64-09</t>
+          <t xml:space="preserve"> 04-15-07</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -6438,17 +6438,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>AA-12002</t>
+          <t>KJF606</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 06-64-09</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-02</t>
+          <t xml:space="preserve"> 05-28-01-A</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -6458,17 +6458,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>KJF804C</t>
+          <t>AH-20009-GR</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-10-03</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 06-30-02-A</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -6478,17 +6478,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>AH-20009-GR</t>
+          <t>FC154807</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-03</t>
+          <t xml:space="preserve"> 05-50-09</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-A</t>
+          <t xml:space="preserve"> 05-44-02-B</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -6498,17 +6498,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>FC574521</t>
+          <t>GJW61</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-63-04</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -6518,17 +6518,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>FC169612</t>
+          <t>KJF804C</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -6538,17 +6538,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>FC154807</t>
+          <t>FC169612</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-09</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -6558,17 +6558,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>KJF614</t>
+          <t>LG6082944</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-09</t>
+          <t xml:space="preserve"> 04-04-06</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-41-02-A</t>
+          <t xml:space="preserve"> 04-09-02</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -6578,17 +6578,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>KJB801W</t>
+          <t>AA-12002</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-01-A</t>
+          <t xml:space="preserve"> 04-11-02</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -6598,17 +6598,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>KJA1215-BL</t>
+          <t>KJF614</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-07</t>
+          <t xml:space="preserve"> 05-44-09</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-41-02-A</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -6618,17 +6618,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>FC574522</t>
+          <t>KJB100-WH</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-61-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -6638,17 +6638,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>GJW61</t>
+          <t>FC574521</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 06-63-04</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -6658,17 +6658,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>LG6082944</t>
+          <t>KJB801W</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-06</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-02</t>
+          <t xml:space="preserve"> 05-32-01-A</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -6678,17 +6678,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BA-10019-B</t>
+          <t>ABB-FW001-BL</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-07</t>
+          <t xml:space="preserve"> 06-58-07</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-01-B</t>
+          <t xml:space="preserve"> 06-26-02-B</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -6698,17 +6698,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PER246</t>
+          <t>BA-10019-B</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-06</t>
+          <t xml:space="preserve"> 06-57-07</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-28-01-B</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -6718,17 +6718,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ABB-FW001-BL</t>
+          <t>KJA045-BL</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-58-07</t>
+          <t xml:space="preserve"> 06-57-08</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-26-02-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -6738,17 +6738,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>KJA045-BL</t>
+          <t>BA-10019-M</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-08</t>
+          <t xml:space="preserve"> 06-62-09</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -6758,17 +6758,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>AH-20007-GR</t>
+          <t>KJN830-WH</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-03</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-32-01-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -6778,17 +6778,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>AB-42011-G</t>
+          <t>KJA407-PI</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-56-07</t>
+          <t xml:space="preserve"> 06-61-08</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-03-A</t>
+          <t xml:space="preserve"> 05-34-02-B</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -6798,17 +6798,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>KJA407-PI</t>
+          <t>AB-42011-G</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-61-08</t>
+          <t xml:space="preserve"> 06-56-07</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-34-02-B</t>
+          <t xml:space="preserve"> 05-49-03-A</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -6838,17 +6838,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BA-10019-M</t>
+          <t>AH-20009-BL</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-62-09</t>
+          <t xml:space="preserve"> 06-57-03</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -6858,7 +6858,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>AH-20009-BL</t>
+          <t>AH-20007-GR</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 06-32-01-B</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -6878,17 +6878,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>KJN830-WH</t>
+          <t>PER246</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 06-57-06</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -6958,17 +6958,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>PER-245</t>
+          <t>KJF603</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 06-42-02-A</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -6978,17 +6978,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>KJF603</t>
+          <t>BA-10019-G</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-02-A</t>
+          <t xml:space="preserve"> 06-28-02-A</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -6998,17 +6998,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BA-10019-G</t>
+          <t>KJF602</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 04-12-09</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-02-A</t>
+          <t xml:space="preserve"> 06-34-01-A</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -7018,17 +7018,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>KJF602</t>
+          <t>FC220081</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-09</t>
+          <t xml:space="preserve"> 04-13-03</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-34-01-A</t>
+          <t xml:space="preserve"> 05-52-02-B</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -7038,17 +7038,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>FC220081</t>
+          <t>FC154421</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-03</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-52-02-B</t>
+          <t xml:space="preserve"> 06-44-01-A</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -7058,17 +7058,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>FC154421</t>
+          <t>TOP-193A-BL</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-20-09</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -7078,17 +7078,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>TOP-193A-BL</t>
+          <t>KJ-F652-BL</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-20-09</t>
+          <t xml:space="preserve"> 04-22-09</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-30-02-A</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -7098,17 +7098,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>KJ-F652-BL</t>
+          <t>CGM43</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-09</t>
+          <t xml:space="preserve"> 05-28-06</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-A</t>
+          <t xml:space="preserve"> 05-29-01-B</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -7118,17 +7118,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PLW28</t>
+          <t>DGH82</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-23-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -7138,17 +7138,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>CGM43</t>
+          <t>FC169624</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-06</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -7158,17 +7158,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>DGH82</t>
+          <t>FC574511</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-30-01-A</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -7178,57 +7178,57 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>FC169624</t>
+          <t>PLW28</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 05-23-09</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>FC574511</t>
+          <t>AC-21015-S</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-A</t>
+          <t xml:space="preserve"> 05-05-01</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>AC-21015-S</t>
+          <t>TOP-808G</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-10-05</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-01</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -7238,17 +7238,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>PER-241</t>
+          <t>PER-245</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-08</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -7258,17 +7258,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>KJA228-BL</t>
+          <t>LD130-F-YEL</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D342" t="n">

--- a/replenishment_plan.xlsx
+++ b/replenishment_plan.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>122671</v>
+        <v>133932</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +578,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LD131-BLACK</t>
+          <t>LD131-BLUE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-04-01</t>
+          <t xml:space="preserve"> 05-06-02</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LD131-BLUE</t>
+          <t>LD131-BLACK</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-06-02</t>
+          <t xml:space="preserve"> 05-04-01</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -698,41 +698,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LD105</t>
+          <t>KJA701</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4536</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KJA701</t>
+          <t>LD105</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4064</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="16">
@@ -798,7 +798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KJA705</t>
+          <t>KJA20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,71 +808,71 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-08-02</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1774</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KJA20</t>
+          <t>KJA417</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-08-02</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1765</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KJA417</t>
+          <t>BF-638P</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 05-51-03-B</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1681</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BF-638P</t>
+          <t>KJA705</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1622</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="23">
@@ -912,67 +912,67 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1239</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BF-193A</t>
+          <t>LD107</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-14-04</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1229</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LD130-F-ORN</t>
+          <t>BF-193A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-01-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1225</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LD107</t>
+          <t>LD130-F-ORN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-14-04</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 06-42-01-A</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1196</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="28">
@@ -1098,7 +1098,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LD130-F-MAR</t>
+          <t>LD130-F-PIN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-02-B</t>
+          <t xml:space="preserve"> 06-44-01-A</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1118,67 +1118,67 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LD130-F-PIN</t>
+          <t>LD130-F-GYE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-A</t>
+          <t xml:space="preserve"> 05-43-01-B</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LD130-F-GYE</t>
+          <t>FC124025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 05-09-04</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-43-01-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FC124025</t>
+          <t>LD130-F-PUR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-04</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-19-02</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LD130-F-PUR</t>
+          <t>LD130-F-LBL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1188,87 +1188,87 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-02</t>
+          <t xml:space="preserve"> 06-45-03-B</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LD130-F-LBL</t>
+          <t>LD132-PC-RED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 05-03-06</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-45-03-B</t>
+          <t xml:space="preserve"> 05-05-02</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>921</v>
+        <v>886</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LD132-PC-RED</t>
+          <t>LD130-F-MAR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-06</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-02</t>
+          <t xml:space="preserve"> 06-44-02-B</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LD130-F-LPI</t>
+          <t>FC120894</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-19-08</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-03-A</t>
+          <t xml:space="preserve"> 05-44-01-A</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>850</v>
+        <v>869</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FC120894</t>
+          <t>LD130-F-LPI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-08</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-01-A</t>
+          <t xml:space="preserve"> 06-46-03-A</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1398,201 +1398,201 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DF-003A</t>
+          <t>FC154451</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-39-07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-02-02</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FC154451</t>
+          <t>KJA225-PI</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-07</t>
+          <t xml:space="preserve"> 04-16-04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-02-02</t>
+          <t xml:space="preserve"> 05-41-02-A</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>672</v>
+        <v>658</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>KJA225-PI</t>
+          <t>KJA419</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-04</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-02-A</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LD130-F-LEG</t>
+          <t>AB-41011-G</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-09-06</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-43-03-B</t>
+          <t xml:space="preserve"> 05-51-02-B</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AB-41011-G</t>
+          <t>LD108</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-06</t>
+          <t xml:space="preserve"> 04-10-09</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LD108</t>
+          <t>LD130-F-LEG</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-43-03-B</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>639</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KJA418</t>
+          <t>DF-004-80</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-25-05</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-20-02</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>593</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DF-004-80</t>
+          <t>LD130-F-LVI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-05</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-02</t>
+          <t xml:space="preserve"> 06-44-03-A</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LD130-F-LVI</t>
+          <t>KJA225-BL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-03-A</t>
+          <t xml:space="preserve"> 05-39-02-A</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KJA225-BL</t>
+          <t>KJA418</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59">
@@ -1738,81 +1738,81 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KJA025-BL</t>
+          <t>DF-003A</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-04</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BF-006S-BL</t>
+          <t>KJA025-BL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-06</t>
+          <t xml:space="preserve"> 04-16-04</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FC154321</t>
+          <t>BF-006S-BL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-06</t>
+          <t xml:space="preserve"> 04-09-06</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-56-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>KJA419</t>
+          <t>FC154321</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-16-06</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 04-56-03-B</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70">
@@ -1938,81 +1938,81 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>KJW827W-BL</t>
+          <t>DF-002A</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> KTFD</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DT-004D</t>
+          <t>KJW827W-BL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-56-03-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BV447</t>
+          <t>DT-004D</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-07</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-01-A</t>
+          <t xml:space="preserve"> 04-56-03-B</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PP007</t>
+          <t>BV447</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-08</t>
+          <t xml:space="preserve"> 04-16-07</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 05-41-01-A</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80">
@@ -2032,53 +2032,53 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CE-20802-1B-P</t>
+          <t>PP007</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 05-05-08</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>335</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FC1111-06</t>
+          <t>CE-20802-1B-P</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-07</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FC1420099</t>
+          <t>FC1111-06</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2088,111 +2088,111 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-19-02</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>KJA407-BL</t>
+          <t>FC1420099</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-56-05</t>
+          <t xml:space="preserve"> 05-05-07</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DF-003B</t>
+          <t>KJA407-BL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 05-56-05</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-39-01-B</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CB-10005</t>
+          <t>DF-003B</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AB-41012-G</t>
+          <t>CB-10005</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>KJA1303-BL</t>
+          <t>AB-41012-G</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-15-04</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89">
@@ -2212,67 +2212,67 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KJA035-PI</t>
+          <t>KJA1303-BL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-07</t>
+          <t xml:space="preserve"> 05-15-04</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-37-02-B</t>
+          <t xml:space="preserve"> 05-40-02-A</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>KJA035-BL</t>
+          <t>KJA035-PI</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-04</t>
+          <t xml:space="preserve"> 05-20-07</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-37-02-B</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DF-002A</t>
+          <t>KJA035-BL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-16-04</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTFD</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97">
@@ -2478,17 +2478,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FC163020</t>
+          <t>KJA209-S</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-05</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2498,17 +2498,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>KJA209-S</t>
+          <t>FC163020</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 05-28-05</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2538,17 +2538,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>KJA8613-BE</t>
+          <t>DF-001A</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> KTFD</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2558,61 +2558,61 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DF-002B</t>
+          <t>KJA8613-BE</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-38-05</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>KJB100-BL</t>
+          <t>DF-002B</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-04</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>KJA7317-GR</t>
+          <t>KJB100-BL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-07</t>
+          <t xml:space="preserve"> 04-15-04</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
@@ -2638,92 +2638,92 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FC154351</t>
+          <t>KJA7317-GR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-05</t>
+          <t xml:space="preserve"> 05-29-07</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-46-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LD124</t>
+          <t>FC154351</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 05-31-05</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-46-03-A</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FC123025</t>
+          <t>LD124</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-04-07</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PF-001A</t>
+          <t>FC123025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-04-07</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-19-02</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TOP-100</t>
+          <t>PF-001A</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
@@ -2758,21 +2758,21 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>KJB100-PU</t>
+          <t>TOP-100</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-09</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-16-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
@@ -2798,72 +2798,72 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>KJA230-WH</t>
+          <t>KJB100-PU</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-53-06</t>
+          <t xml:space="preserve"> 04-16-09</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-21-01</t>
+          <t xml:space="preserve"> 05-16-02</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AC-21015-M</t>
+          <t>KJA230-WH</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 06-53-06</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-21-01</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CB-10007</t>
+          <t>AC-21015-M</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BF-640B</t>
+          <t>CB-10007</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2872,107 +2872,107 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>KJA7318-RE</t>
+          <t>BF-640B</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-06</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TOP-216</t>
+          <t>KJA7318-RE</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-08</t>
+          <t xml:space="preserve"> 05-40-06</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>KJG808N</t>
+          <t>TOP-216</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-14-06</t>
+          <t xml:space="preserve"> 04-07-08</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-02-B</t>
+          <t xml:space="preserve"> 06-40-01-B</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DT-009</t>
+          <t>KJG808N</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-14-06</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-26-02-B</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>P-3S</t>
+          <t>DT-009</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTFD</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128">
@@ -2998,112 +2998,112 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>FC154499</t>
+          <t>P-3S</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-09</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-64-02-A</t>
+          <t xml:space="preserve"> KTFD</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>LD125</t>
+          <t>FC154499</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 05-32-09</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-02</t>
+          <t xml:space="preserve"> 05-64-02-A</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>KJA209-X</t>
+          <t>LD125</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-07-02</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>C4982</t>
+          <t>KJA209-X</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-09</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>KJA228-PI</t>
+          <t>C4982</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 04-08-09</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AA-31009</t>
+          <t>BF-19103</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3118,12 +3118,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BF-19103</t>
+          <t>KJA228-PI</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3278,81 +3278,81 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BF-14103-PI</t>
+          <t>FC891824</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 05-58-09</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-22-02</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FC891824</t>
+          <t>KJA8110-RE</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-58-09</t>
+          <t xml:space="preserve"> 05-29-07</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>KJA8110-RE</t>
+          <t>BF-150-PI</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-07</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BF-150-PI</t>
+          <t>KJN511-BL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 05-10-05</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-34-01-B</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147">
@@ -3378,37 +3378,37 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>KJN511-BL</t>
+          <t>AC-21015-L</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-05</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-34-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AC-21015-L</t>
+          <t>KJQ316</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-39-01-A</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3418,32 +3418,32 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>KJQ316</t>
+          <t>PF-002A</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-39-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PF-002A</t>
+          <t>KJA209-L</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3458,37 +3458,37 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>KJA209-L</t>
+          <t>BV463</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-16-07</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-42-02-B</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BV463</t>
+          <t>FC122704</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-07</t>
+          <t xml:space="preserve"> 04-22-08</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-02-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3498,57 +3498,57 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FC122704</t>
+          <t>PP005</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-08</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-55-03-A</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PP005</t>
+          <t>BF-14103-BL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 04-10-04</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-55-03-A</t>
+          <t xml:space="preserve"> 05-53-03-B</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BF-14103-BL</t>
+          <t>PP001</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-04</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-53-03-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3558,61 +3558,61 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PP001</t>
+          <t>FC118106</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>LD130-F-LIB</t>
+          <t>KJB812C-PI</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-37-07</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-02-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FC118106</t>
+          <t>30782</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-39-09</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-17-02</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160">
@@ -3638,147 +3638,147 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>30782</t>
+          <t>PLW06</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-39-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-17-02</t>
+          <t xml:space="preserve"> 06-46-01-B</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>KJB812C-PI</t>
+          <t>KJA8110-BK</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-37-07</t>
+          <t xml:space="preserve"> 06-34-06</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PLW06</t>
+          <t>AB-41011-B</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-01-B</t>
+          <t xml:space="preserve"> 05-51-03-B</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DF-001A</t>
+          <t>BF-121-6</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTFD</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>KJA8110-BK</t>
+          <t>PLW01</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-34-06</t>
+          <t xml:space="preserve"> 05-03-08</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-29-02-A</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AB-41011-B</t>
+          <t>AA-31009</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BF-121-6</t>
+          <t>PLW18</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-31-05</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-46-01-B</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PLW01</t>
+          <t>PP010</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3788,11 +3788,11 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-02-A</t>
+          <t xml:space="preserve"> 04-55-03-A</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169">
@@ -3818,41 +3818,41 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PLW18</t>
+          <t>PLW24</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-05</t>
+          <t xml:space="preserve"> 05-01-05</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-01-B</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PP010</t>
+          <t>BF-138</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-08</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-55-03-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172">
@@ -3878,17 +3878,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BF-138</t>
+          <t>KJN509-PI</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-10-05</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3898,317 +3898,317 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LD130-F-BLU</t>
+          <t>LD130-F-WHI</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-B</t>
+          <t xml:space="preserve"> 05-39-01-A</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>KJN509-PI</t>
+          <t>KJA230-PI</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-05</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 05-10-01</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PLW24</t>
+          <t>KJN515-PI</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-05</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 04-50-03-A</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>KJA230-PI</t>
+          <t>PLW22</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-01-06</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-01</t>
+          <t xml:space="preserve"> 06-46-02-B</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LD130-F-WHI</t>
+          <t>PP004</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-01-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PLW22</t>
+          <t>PF-001</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-06</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>KJN515-PI</t>
+          <t>BF-632</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 04-10-05</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PP004</t>
+          <t>KJ-F651-BL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-38-01-B</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PF-001</t>
+          <t>KJA246</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-08-09</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BF-632</t>
+          <t>LD130-F-BLK</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-05</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>KJA246</t>
+          <t>BV457</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-09</t>
+          <t xml:space="preserve"> 04-16-09</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>KJ-F651-BL</t>
+          <t>KJF806C</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 05-31-03</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-01-B</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>KJF806C</t>
+          <t>FC379012</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-03</t>
+          <t xml:space="preserve"> 05-07-03</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 05-18-02</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>LD130-F-BLK</t>
+          <t>AC-21011M</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 04-07-04</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BV457</t>
+          <t>PLW23</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-09</t>
+          <t xml:space="preserve"> 05-61-06</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 05-27-01-A</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>KJN514-PI</t>
+          <t>BF-148-BL</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-06</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-B</t>
+          <t xml:space="preserve"> 05-39-02-B</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4238,17 +4238,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>FC379012</t>
+          <t>KJC810M</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-07-03</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-18-02</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4258,17 +4258,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>KJC810M</t>
+          <t>KJN514-PI</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 05-25-06</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-50-03-B</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4278,52 +4278,52 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BF-148-BL</t>
+          <t>AB-41020</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-B</t>
+          <t xml:space="preserve"> 05-50-03-B</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PLW23</t>
+          <t>BF-160A-1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-61-06</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AC-21011M</t>
+          <t>TOP-808G</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-04</t>
+          <t xml:space="preserve"> 04-10-05</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4332,118 +4332,118 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AB-41020</t>
+          <t>KJN513-PI</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-06-06</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-B</t>
+          <t xml:space="preserve"> 04-50-03-A</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BF-160A-1</t>
+          <t>KJN512-BL</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-22-05</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-30-01-A</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FC170640</t>
+          <t>AB-32011-B</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>KJN513-PI</t>
+          <t>BF-160B</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-06-06</t>
+          <t xml:space="preserve"> 04-10-04</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AB-32011-B</t>
+          <t>AC-22005S</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BF-160D</t>
+          <t>BF-136</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-09</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4452,653 +4452,653 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>KJN512-BL</t>
+          <t>NB-205G</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-05</t>
+          <t xml:space="preserve"> 04-04-07</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-A</t>
+          <t xml:space="preserve"> 05-50-03-B</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BF-160B</t>
+          <t>AA-12018</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-04</t>
+          <t xml:space="preserve"> 05-32-06</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-11-01</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BF-136</t>
+          <t>DT-006A-1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AC-22005S</t>
+          <t>BF-150-BL</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>DT-006A-1</t>
+          <t>KJN514-BL</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-50-03-B</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>AA-12018</t>
+          <t>KJN503-BL</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-06</t>
+          <t xml:space="preserve"> 05-02-07</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-11-01</t>
+          <t xml:space="preserve"> 06-29-02-A</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>NB-205G</t>
+          <t>BF-148-PI</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-07</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-B</t>
+          <t xml:space="preserve"> 05-51-03-A</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BF-150-BL</t>
+          <t>BF-14103-PI</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>LD130-F-BRO</t>
+          <t>TOP-707G</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-01-B</t>
+          <t xml:space="preserve"> 05-50-03-A</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>KJN514-BL</t>
+          <t>MB-16-85005</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-B</t>
+          <t xml:space="preserve"> 06-30-02-B</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>KJN503-BL</t>
+          <t>FC118112</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-02-07</t>
+          <t xml:space="preserve"> 05-01-05</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-02-A</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TOP-707G</t>
+          <t>FC154363</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-A</t>
+          <t xml:space="preserve"> 04-56-03-B</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BF-237B</t>
+          <t>BF-160D</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-10-09</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BF-148-PI</t>
+          <t>KJF613</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-A</t>
+          <t xml:space="preserve"> 06-42-01-A</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MB-16-85005</t>
+          <t>PLW27</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 05-26-05</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-B</t>
+          <t xml:space="preserve"> 05-27-01-B</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>FC154363</t>
+          <t>KJA307-BL</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-56-03-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>KJF613</t>
+          <t>CB-30002</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 04-18-09</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-01-A</t>
+          <t xml:space="preserve"> 06-31-01-A</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>KJA307-BL</t>
+          <t>KJB554-XL-WH</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 05-03-04</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-09-02</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PLW27</t>
+          <t>FC891418</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-05</t>
+          <t xml:space="preserve"> 05-25-03</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-01-B</t>
+          <t xml:space="preserve"> 05-45-03-A</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>CB-30002</t>
+          <t>KJB554-L-BL</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-18-09</t>
+          <t xml:space="preserve"> 05-38-07</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-31-01-A</t>
+          <t xml:space="preserve"> 05-09-02</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>KJB554-XL-WH</t>
+          <t>KJN515-BL</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-04</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-02</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>KJN515-BL</t>
+          <t>PLW19</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 05-33-07</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 06-43-03-A</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>FC118112</t>
+          <t>PLW07</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-05</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 06-29-01-A</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>KJB554-L-BL</t>
+          <t>KJD200-L BL</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-07</t>
+          <t xml:space="preserve"> 04-10-05</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-02</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>FC891418</t>
+          <t>AF-10004</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-03</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>PLW07</t>
+          <t>LD102</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-01-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PLW19</t>
+          <t>GCM79</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-33-07</t>
+          <t xml:space="preserve"> 04-13-03</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-43-03-A</t>
+          <t xml:space="preserve"> 05-49-02-B</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AF-10004</t>
+          <t>KJB554-S-PI</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-36-08</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-25-02-B</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>KJD200-L BL</t>
+          <t>BP-868</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 06-30-01-A</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>GCM79</t>
+          <t>BF-237B</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-03</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-02-B</t>
+          <t xml:space="preserve"> 05-51-03-A</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>LD102</t>
+          <t>BF-239-PI</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-33-01-A</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BP-868</t>
+          <t>KJB554-S-BL</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 05-36-08</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-01-A</t>
+          <t xml:space="preserve"> 05-25-02-B</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>KJB554-S-PI</t>
+          <t>KJB554-S-WH</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5112,143 +5112,143 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BF-239-PI</t>
+          <t>FC1000-01BB</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-33-01-A</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>KJB554-S-WH</t>
+          <t>FC120043</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-36-08</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-02-B</t>
+          <t xml:space="preserve"> 05-44-01-A</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>KJB554-S-BL</t>
+          <t>KJD200-M-PI</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-36-08</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-02-B</t>
+          <t xml:space="preserve"> 05-26-02-B</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>FC120043</t>
+          <t>KJA902</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-09-04</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-01-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>FC1000-01BB</t>
+          <t>FC1410501</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 05-54-06</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>KJD200-M-PI</t>
+          <t>FC189102</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-02-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>FC189102</t>
+          <t>KJD200-S-PI</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 05-30-02-A</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -5258,77 +5258,77 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>KJD200-S-PI</t>
+          <t>CB-30001</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-18-09</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-02-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>KJA902</t>
+          <t>KJB554-XL-PI</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-04</t>
+          <t xml:space="preserve"> 05-38-07</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-04-02</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>FC1410501</t>
+          <t>AC-21011L</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-54-06</t>
+          <t xml:space="preserve"> 04-12-07</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>KJB554-XL-PI</t>
+          <t>PLW21</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-07</t>
+          <t xml:space="preserve"> 05-09-06</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-04-02</t>
+          <t xml:space="preserve"> 06-30-02-B</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -5378,72 +5378,72 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>PLW21</t>
+          <t>FC144501</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-06</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AC-21011L</t>
+          <t>BF-239-GR</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-07</t>
+          <t xml:space="preserve"> 04-13-04</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-31-01-B</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CB-30001</t>
+          <t>KJB551-PI</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-18-09</t>
+          <t xml:space="preserve"> 05-38-03</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-29-01-A</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>FC144501</t>
+          <t>FC144506</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5478,17 +5478,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>FC144506</t>
+          <t>LD101</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 06-41-09</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -5498,57 +5498,57 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>LD101</t>
+          <t>KJP402-WH</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-41-09</t>
+          <t xml:space="preserve"> 04-12-09</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>KJB551-PI</t>
+          <t>PER-241</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-03</t>
+          <t xml:space="preserve"> 04-10-08</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>FC126012</t>
+          <t>KJD200-L-PI</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 05-31-02-A</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -5558,17 +5558,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>KJP402-WH</t>
+          <t>DT006D-1</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-09</t>
+          <t xml:space="preserve"> 04-15-06</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 06-12-02</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -5578,17 +5578,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>PER-241</t>
+          <t>FC126012</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -5598,37 +5598,37 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>DT006D-1</t>
+          <t>KJB821T-PI</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-06</t>
+          <t xml:space="preserve"> 06-46-04</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-12-02</t>
+          <t xml:space="preserve"> 05-38-02-A</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>KJA901</t>
+          <t>BF-147-BL</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-36-02-A</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -5638,12 +5638,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>AA-31014</t>
+          <t>KJA901</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-06</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5658,17 +5658,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BF-147-BL</t>
+          <t>AA-31014</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-09-06</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-36-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -5678,41 +5678,41 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>KJD200-L-PI</t>
+          <t>FC144512</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>KJB821T-PI</t>
+          <t>FC575807</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-04</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
@@ -5738,17 +5738,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>FC144512</t>
+          <t>DF-001</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-22-02</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -5758,17 +5758,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>DF-001</t>
+          <t>BC-30005</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-02</t>
+          <t xml:space="preserve"> 06-35-01-A</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -5778,27 +5778,27 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>BC-30005</t>
+          <t>FC144511</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-35-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>FC575807</t>
+          <t>FC1000-04</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5808,27 +5808,27 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-45-01-B</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>FC1000-04</t>
+          <t>FC115524</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-45-01-B</t>
+          <t xml:space="preserve"> 05-41-02-B</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -5838,12 +5838,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>FC144511</t>
+          <t>AC-22005L</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 04-14-09</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5858,17 +5858,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>FC115524</t>
+          <t>AB-32012-Y</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-02-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -5878,17 +5878,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ABB-B001-12</t>
+          <t>FC144507</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-13-03</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-03-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5898,17 +5898,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AC-22005L</t>
+          <t>ABB-B001-12</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-14-09</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-49-03-A</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -5938,57 +5938,57 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AB-32012-Y</t>
+          <t>FC144508</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>FC144507</t>
+          <t>AB-32012-O</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-03</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>FC144508</t>
+          <t>FA-11002-L</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 05-56-03</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-45-02-A</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -6018,57 +6018,57 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AB-32012-O</t>
+          <t>FC144505</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FA-11002-L</t>
+          <t>FC220106</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-56-03</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-02-A</t>
+          <t xml:space="preserve"> 06-46-03-B</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>KJA1304-BL</t>
+          <t>FC118036</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-60-02-B</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -6078,17 +6078,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>FC144505</t>
+          <t>FC122812</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-61-02-A</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -6098,17 +6098,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>FC118036</t>
+          <t>KJA1304-PI</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-60-02-B</t>
+          <t xml:space="preserve"> 06-03-01</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -6118,17 +6118,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>FC220106</t>
+          <t>KJA1304-BL</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -6138,17 +6138,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>FC115512</t>
+          <t>HNT74</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 05-35-01-A</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -6158,17 +6158,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>FC122812</t>
+          <t>FC115512</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-61-02-A</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -6178,41 +6178,41 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>HNT74</t>
+          <t>KJ-F653-PI</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-55-07</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-35-01-A</t>
+          <t xml:space="preserve"> 06-33-01-A</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>KJA1304-PI</t>
+          <t>BA-10020-B</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-03-01</t>
+          <t xml:space="preserve"> 06-26-01-A</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -6238,17 +6238,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>KJ-F653-PI</t>
+          <t>FC574500</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-55-07</t>
+          <t xml:space="preserve"> 05-54-07</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-33-01-A</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -6258,7 +6258,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>FC144504</t>
+          <t>PLW13</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-28-02-A</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -6278,7 +6278,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>PLW12</t>
+          <t>FC144504</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -6298,17 +6298,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>PLW13</t>
+          <t>AE-20014</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-09-04</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-02-A</t>
+          <t xml:space="preserve"> 04-11-02</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -6318,17 +6318,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>FC574500</t>
+          <t>PLW12</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-54-07</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 06-44-01-B</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -6338,77 +6338,77 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>AE-20014</t>
+          <t>KJF804C</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-04</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-02</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BA-10020-B</t>
+          <t>FC169612</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-26-01-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BF-239-GR</t>
+          <t>FC574522</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-04</t>
+          <t xml:space="preserve"> 06-61-09</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-31-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>FC574522</t>
+          <t>FC574521</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-61-09</t>
+          <t xml:space="preserve"> 06-63-04</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -6418,17 +6418,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>KJA1215-BL</t>
+          <t>KJF614</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-07</t>
+          <t xml:space="preserve"> 05-44-09</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-41-02-A</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -6438,17 +6438,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>KJF606</t>
+          <t>KJB801W</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-64-09</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-01-A</t>
+          <t xml:space="preserve"> 05-32-01-A</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -6458,17 +6458,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AH-20009-GR</t>
+          <t>KJB100-WH</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-03</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -6498,17 +6498,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>GJW61</t>
+          <t>AH-20009-GR</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-10-03</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-30-02-A</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -6518,17 +6518,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>KJF804C</t>
+          <t>KJA1215-BL</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-15-07</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -6538,17 +6538,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>FC169612</t>
+          <t>AA-12002</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-11-02</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -6578,17 +6578,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>AA-12002</t>
+          <t>GJW61</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -6598,17 +6598,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>KJF614</t>
+          <t>KJF606</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-09</t>
+          <t xml:space="preserve"> 06-64-09</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-41-02-A</t>
+          <t xml:space="preserve"> 05-28-01-A</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -6618,77 +6618,77 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>KJB100-WH</t>
+          <t>TOP-193A-PI</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 06-57-04</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-27-02-B</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>FC574521</t>
+          <t>ABB-FW001-BL</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-63-04</t>
+          <t xml:space="preserve"> 06-58-07</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 06-26-02-B</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>KJB801W</t>
+          <t>BA-10019-B</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 06-57-07</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-01-A</t>
+          <t xml:space="preserve"> 06-28-01-B</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ABB-FW001-BL</t>
+          <t>KJN830-WH</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-58-07</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-26-02-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -6698,17 +6698,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BA-10019-B</t>
+          <t>KJA407-PI</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-07</t>
+          <t xml:space="preserve"> 06-61-08</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-01-B</t>
+          <t xml:space="preserve"> 05-34-02-B</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -6718,17 +6718,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>KJA045-BL</t>
+          <t>AB-42011-G</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-08</t>
+          <t xml:space="preserve"> 06-56-07</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-49-03-A</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -6758,12 +6758,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>KJN830-WH</t>
+          <t>AH-20009-BL</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 06-57-03</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6778,17 +6778,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>KJA407-PI</t>
+          <t>PER246</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-61-08</t>
+          <t xml:space="preserve"> 06-57-06</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-34-02-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -6798,17 +6798,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>AB-42011-G</t>
+          <t>KJA045-BL</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-56-07</t>
+          <t xml:space="preserve"> 06-57-08</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -6818,17 +6818,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>TOP-193A-PI</t>
+          <t>AH-20007-GR</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-04</t>
+          <t xml:space="preserve"> 06-57-03</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-27-02-B</t>
+          <t xml:space="preserve"> 06-32-01-B</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -6838,17 +6838,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>AH-20009-BL</t>
+          <t>DRD92</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-03</t>
+          <t xml:space="preserve"> 09-03-04</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-29-01-B</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -6858,17 +6858,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>AH-20007-GR</t>
+          <t>KJA1301-MIX</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-03</t>
+          <t xml:space="preserve"> 04-22-08</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-32-01-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -6878,17 +6878,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>PER246</t>
+          <t>KJF603</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-06</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-42-02-A</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -6898,17 +6898,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DRD92</t>
+          <t>FC154421</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 09-03-04</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-B</t>
+          <t xml:space="preserve"> 06-44-01-A</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -6918,17 +6918,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>KJC453-GR</t>
+          <t>FC574511</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-04</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 05-30-01-A</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -6938,17 +6938,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>KJA1301-MIX</t>
+          <t>FC169624</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -6958,17 +6958,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>KJF603</t>
+          <t>DGH82</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -6978,17 +6978,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BA-10019-G</t>
+          <t>CGM43</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 05-28-06</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-02-A</t>
+          <t xml:space="preserve"> 05-29-01-B</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -6998,17 +6998,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>KJF602</t>
+          <t>PLW28</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-09</t>
+          <t xml:space="preserve"> 05-23-09</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-34-01-A</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -7018,17 +7018,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>FC220081</t>
+          <t>KJ-F652-BL</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-03</t>
+          <t xml:space="preserve"> 04-22-09</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-52-02-B</t>
+          <t xml:space="preserve"> 06-30-02-A</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -7038,17 +7038,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>FC154421</t>
+          <t>PER-245</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -7078,17 +7078,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>KJ-F652-BL</t>
+          <t>KJC453-GR</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-09</t>
+          <t xml:space="preserve"> 06-46-04</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-A</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -7098,17 +7098,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CGM43</t>
+          <t>FC220081</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-06</t>
+          <t xml:space="preserve"> 04-13-03</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-B</t>
+          <t xml:space="preserve"> 05-52-02-B</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -7118,17 +7118,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>DGH82</t>
+          <t>KJF602</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-12-09</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-34-01-A</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -7138,17 +7138,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>FC169624</t>
+          <t>BA-10019-G</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 06-28-02-A</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -7158,37 +7158,37 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>FC574511</t>
+          <t>FC170640</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-A</t>
+          <t xml:space="preserve"> 05-20-02</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>PLW28</t>
+          <t>LD130-F-LIB</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-23-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 05-41-02-B</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -7198,17 +7198,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>AC-21015-S</t>
+          <t>LD130-F-YEL</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-01</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -7218,17 +7218,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>TOP-808G</t>
+          <t>AC-21015-S</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-05</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-05-01</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -7238,17 +7238,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>PER-245</t>
+          <t>LD130-F-BLU</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-39-02-B</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -7258,7 +7258,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>LD130-F-YEL</t>
+          <t>LD130-F-BRO</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 05-40-01-B</t>
         </is>
       </c>
       <c r="D342" t="n">

--- a/replenishment_plan.xlsx
+++ b/replenishment_plan.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>93474</v>
+        <v>93255</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54708</v>
+        <v>53728</v>
       </c>
     </row>
     <row r="7">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>45819</v>
+        <v>45592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LD131-BLUE</t>
+          <t>LD131-BLACK</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-06-02</t>
+          <t xml:space="preserve"> 05-04-01</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LD131-BLACK</t>
+          <t>LD131-BLUE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-04-01</t>
+          <t xml:space="preserve"> 05-06-02</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28476</v>
+        <v>28253</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24445</v>
+        <v>27150</v>
       </c>
     </row>
     <row r="11">
@@ -698,41 +698,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KJA701</t>
+          <t>LD105</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4860</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LD105</t>
+          <t>KJA701</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4536</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="16">
@@ -798,7 +798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KJA20</t>
+          <t>KJA705</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,71 +808,71 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-08-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1765</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KJA417</t>
+          <t>KJA20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 05-08-02</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1681</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BF-638P</t>
+          <t>KJA417</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-B</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1622</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KJA705</t>
+          <t>BF-638P</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-51-03-B</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1571</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="23">
@@ -912,47 +912,47 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1235</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LD107</t>
+          <t>BF-193A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-14-04</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1196</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BF-193A</t>
+          <t>LD107</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-14-04</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1162</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="27">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>842</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45">
@@ -1398,207 +1398,207 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FC154451</t>
+          <t>DF-003A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-07</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-02-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>KJA225-PI</t>
+          <t>FC154451</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-04</t>
+          <t xml:space="preserve"> 05-39-07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-02-A</t>
+          <t xml:space="preserve"> 05-02-02</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>658</v>
+        <v>672</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>KJA419</t>
+          <t>KJA225-PI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-16-04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 05-41-02-A</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AB-41011-G</t>
+          <t>KJA419</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-06</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-02-B</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>640</v>
+        <v>655</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LD108</t>
+          <t>AB-41011-G</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-09</t>
+          <t xml:space="preserve"> 04-09-06</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-51-02-B</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LD130-F-LEG</t>
+          <t>LD108</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-10-09</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-43-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>575</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DF-004-80</t>
+          <t>LD130-F-LEG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-05</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-02</t>
+          <t xml:space="preserve"> 06-43-03-B</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LD130-F-LVI</t>
+          <t>DF-004-80</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-25-05</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-03-A</t>
+          <t xml:space="preserve"> 05-20-02</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KJA225-BL</t>
+          <t>LD130-F-LVI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-A</t>
+          <t xml:space="preserve"> 06-44-03-A</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KJA418</t>
+          <t>KJA225-BL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-39-02-A</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LD118</t>
+          <t>KJA418</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>533</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>KJA025-PI</t>
+          <t>LD118</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DF-004B</t>
+          <t>KJA025-PI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-38-01-A</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LD119</t>
+          <t>DF-004B</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1672,18 +1672,18 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PF-003A</t>
+          <t>LD119</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1692,18 +1692,18 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>491</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DF-004C</t>
+          <t>PF-003A</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1712,18 +1712,18 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CE-21001-1B</t>
+          <t>DF-004C</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-18-09</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1732,27 +1732,27 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DF-003A</t>
+          <t>CE-21001-1B</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 04-18-09</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67">
@@ -1798,41 +1798,41 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FC154321</t>
+          <t>KJA228-BL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-06</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-56-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>KJA228-BL</t>
+          <t>FC154321</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-16-06</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-56-03-B</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74">
@@ -1938,77 +1938,77 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DF-002A</t>
+          <t>KJW827W-BL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTFD</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KJW827W-BL</t>
+          <t>DT-004D</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-56-03-B</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DT-004D</t>
+          <t>BV447</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-16-07</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-56-03-B</t>
+          <t xml:space="preserve"> 05-41-01-A</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BV447</t>
+          <t>KJA1303-PI</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-07</t>
+          <t xml:space="preserve"> 04-20-03</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-01-A</t>
+          <t xml:space="preserve"> 05-42-01-B</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2018,67 +2018,67 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>KJA1303-PI</t>
+          <t>PP007</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-20-03</t>
+          <t xml:space="preserve"> 05-05-08</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-B</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PP007</t>
+          <t>CE-20802-1B-P</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-08</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CE-20802-1B-P</t>
+          <t>FC1111-06</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 05-05-07</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-19-02</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FC1111-06</t>
+          <t>FC1420099</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2088,191 +2088,191 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FC1420099</t>
+          <t>KJA407-BL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-07</t>
+          <t xml:space="preserve"> 05-56-05</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-39-01-B</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>KJA407-BL</t>
+          <t>DF-003B</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-56-05</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-01-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DF-003B</t>
+          <t>CB-10005</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>310</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CB-10005</t>
+          <t>AB-41012-G</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AB-41012-G</t>
+          <t>FC575813</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 05-33-07</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-42-02-A</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FC575813</t>
+          <t>KJA1303-BL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-33-07</t>
+          <t xml:space="preserve"> 05-15-04</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-02-A</t>
+          <t xml:space="preserve"> 05-40-02-A</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KJA1303-BL</t>
+          <t>KJA035-PI</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-15-04</t>
+          <t xml:space="preserve"> 05-20-07</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-A</t>
+          <t xml:space="preserve"> 05-37-02-B</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>KJA035-PI</t>
+          <t>KJA035-BL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-07</t>
+          <t xml:space="preserve"> 04-16-04</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-37-02-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>KJA035-BL</t>
+          <t>DF-002A</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-04</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> KTFD</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97">
@@ -2478,17 +2478,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>KJA209-S</t>
+          <t>FC163020</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 05-28-05</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2498,41 +2498,41 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FC163020</t>
+          <t>T7439</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-05</t>
+          <t xml:space="preserve"> 06-53-04</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> VAS-SHORT</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>T7439</t>
+          <t>KJA8613-BE</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-53-04</t>
+          <t xml:space="preserve"> 05-38-05</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VAS-SHORT</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
@@ -2558,77 +2558,77 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>KJA8613-BE</t>
+          <t>DF-002B</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-05</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DF-002B</t>
+          <t>KJB100-BL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 04-15-04</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-01-02</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>KJB100-BL</t>
+          <t>KJA307-RE</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-04</t>
+          <t xml:space="preserve"> 05-55-03</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-02</t>
+          <t xml:space="preserve"> 05-37-02-A</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>KJA307-RE</t>
+          <t>KJA7317-GR</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-55-03</t>
+          <t xml:space="preserve"> 05-29-07</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-37-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2638,117 +2638,117 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>KJA7317-GR</t>
+          <t>FC154351</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-07</t>
+          <t xml:space="preserve"> 05-31-05</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-46-03-A</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FC154351</t>
+          <t>LD124</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-05</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-46-03-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>LD124</t>
+          <t>FC123025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 05-04-07</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-19-02</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FC123025</t>
+          <t>PF-001A</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-04-07</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-19-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PF-001A</t>
+          <t>CB-40001</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-17-06</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CB-40001</t>
+          <t>TOP-100</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-17-06</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2758,12 +2758,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TOP-100</t>
+          <t>D-1(B)S</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2772,23 +2772,23 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D-1(B)S</t>
+          <t>KJB100-PU</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-16-09</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-16-02</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2798,72 +2798,72 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>KJB100-PU</t>
+          <t>KJA230-WH</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-09</t>
+          <t xml:space="preserve"> 06-53-06</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-16-02</t>
+          <t xml:space="preserve"> 05-21-01</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>KJA230-WH</t>
+          <t>AC-21015-M</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-53-06</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-21-01</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AC-21015-M</t>
+          <t>CB-10007</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CB-10007</t>
+          <t>BF-640B</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2872,198 +2872,198 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BF-640B</t>
+          <t>KJA7318-RE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 05-40-06</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>KJA7318-RE</t>
+          <t>TOP-216</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-06</t>
+          <t xml:space="preserve"> 04-07-08</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-40-01-B</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TOP-216</t>
+          <t>KJG808N</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-08</t>
+          <t xml:space="preserve"> 04-14-06</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-01-B</t>
+          <t xml:space="preserve"> 05-26-02-B</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>KJG808N</t>
+          <t>P-3S</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-14-06</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-02-B</t>
+          <t xml:space="preserve"> KTFD</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DT-009</t>
+          <t>FC891622</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 05-33-03</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-22-02</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FC891622</t>
+          <t>FC154499</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-33-03</t>
+          <t xml:space="preserve"> 05-32-09</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-02</t>
+          <t xml:space="preserve"> 05-64-02-A</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>P-3S</t>
+          <t>LD125</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTFD</t>
+          <t xml:space="preserve"> 04-07-02</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FC154499</t>
+          <t>KJA209-X</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-09</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-64-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LD125</t>
+          <t>C4982</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-08-09</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>KJA209-X</t>
+          <t>BF-19103</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3072,333 +3072,333 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>C4982</t>
+          <t>KJA228-PI</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-09</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BF-19103</t>
+          <t>DF-004</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> KTPT</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>KJA228-PI</t>
+          <t>KJP352</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 05-21-07</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-30-02-B</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DF-004</t>
+          <t>DF-001C</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPT</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>KJP352</t>
+          <t>KJA245</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-21-07</t>
+          <t xml:space="preserve"> 04-08-08</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-02-B</t>
+          <t xml:space="preserve"> 04-49-03-A</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DF-001C</t>
+          <t>BF-634A</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>KJA245</t>
+          <t>BV460</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-08</t>
+          <t xml:space="preserve"> 04-16-06</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-49-03-A</t>
+          <t xml:space="preserve"> 06-40-02-B</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BF-634A</t>
+          <t>BF-14103-PI</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BV460</t>
+          <t>FC891824</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-06</t>
+          <t xml:space="preserve"> 05-58-09</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-02-B</t>
+          <t xml:space="preserve"> 05-22-02</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>KJA228-OR</t>
+          <t>KJA8110-RE</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 05-29-07</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-06-01</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FC891824</t>
+          <t>BF-150-PI</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-58-09</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>KJA8110-RE</t>
+          <t>BF-117</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-07</t>
+          <t xml:space="preserve"> 04-08-08</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-53-03-B</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BF-150-PI</t>
+          <t>KJN511-BL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 05-10-05</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-34-01-B</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>KJN511-BL</t>
+          <t>KJQ316</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-05</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-34-01-B</t>
+          <t xml:space="preserve"> 06-39-01-A</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BF-117</t>
+          <t>AC-21015-L</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-08</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-53-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AC-21015-L</t>
+          <t>PF-002A</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>KJQ316</t>
+          <t>KJA209-L</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3408,27 +3408,27 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-39-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PF-002A</t>
+          <t>DT-009</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3438,37 +3438,37 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>KJA209-L</t>
+          <t>BV463</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-16-07</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-42-02-B</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BV463</t>
+          <t>FC122704</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-07</t>
+          <t xml:space="preserve"> 04-22-08</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-02-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3478,27 +3478,27 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FC122704</t>
+          <t>PP005</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-08</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-55-03-A</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PP005</t>
+          <t>PP001</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3508,37 +3508,37 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-55-03-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BF-14103-BL</t>
+          <t>FC118106</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-04</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-53-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PP001</t>
+          <t>PP009</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3548,177 +3548,177 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-55-03-A</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FC118106</t>
+          <t>KJB812C-PI</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 05-37-07</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>KJB812C-PI</t>
+          <t>PLW06</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-37-07</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 06-46-01-B</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>30782</t>
+          <t>KJA8110-BK</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-39-09</t>
+          <t xml:space="preserve"> 06-34-06</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-17-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PP009</t>
+          <t>AB-41011-B</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 04-09-09</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-55-03-A</t>
+          <t xml:space="preserve"> 05-51-03-B</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PLW06</t>
+          <t>BF-121-6</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-01-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>KJA8110-BK</t>
+          <t>30782</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-34-06</t>
+          <t xml:space="preserve"> 06-39-09</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-17-02</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AB-41011-B</t>
+          <t>AA-31009</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-09</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BF-121-6</t>
+          <t>PLW01</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-03-08</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-29-02-A</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PLW01</t>
+          <t>PP010</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3728,31 +3728,31 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-02-A</t>
+          <t xml:space="preserve"> 04-55-03-A</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AA-31009</t>
+          <t>BF-169A</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167">
@@ -3778,61 +3778,61 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PP010</t>
+          <t>PLW24</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-03-08</t>
+          <t xml:space="preserve"> 05-01-05</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-55-03-A</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BF-169A</t>
+          <t>KJN509-PI</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 05-10-05</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PLW24</t>
+          <t>KJN512-PI</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-05</t>
+          <t xml:space="preserve"> 05-22-05</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 05-30-01-B</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171">
@@ -3858,237 +3858,237 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>KJN512-PI</t>
+          <t>KJA230-PI</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-05</t>
+          <t xml:space="preserve"> 04-06-09</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-B</t>
+          <t xml:space="preserve"> 05-10-01</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>KJN509-PI</t>
+          <t>LD130-F-WHI</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-05</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 05-39-01-A</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LD130-F-WHI</t>
+          <t>PLW22</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 05-01-06</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-01-A</t>
+          <t xml:space="preserve"> 06-46-02-B</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>KJA230-PI</t>
+          <t>KJN515-PI</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-06-09</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-10-01</t>
+          <t xml:space="preserve"> 04-50-03-A</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>KJN515-PI</t>
+          <t>PP004</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 04-09-07</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PLW22</t>
+          <t>BF-632</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-06</t>
+          <t xml:space="preserve"> 04-10-05</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-02-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PP004</t>
+          <t>PF-001</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-07</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PF-001</t>
+          <t>KJ-F651-BL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-38-01-B</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BF-632</t>
+          <t>KJA246</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-05</t>
+          <t xml:space="preserve"> 04-08-09</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>KJ-F651-BL</t>
+          <t>LD130-F-BLK</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 04-13-07</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-01-B</t>
+          <t xml:space="preserve"> 05-42-01-A</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>KJA246</t>
+          <t>KJF806C</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-09</t>
+          <t xml:space="preserve"> 05-31-03</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>LD130-F-BLK</t>
+          <t>BV457</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-07</t>
+          <t xml:space="preserve"> 04-16-09</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-42-01-A</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4098,57 +4098,57 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BV457</t>
+          <t>FC379012</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-16-09</t>
+          <t xml:space="preserve"> 05-07-03</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 05-18-02</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>KJF806C</t>
+          <t>BF-148-BL</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-03</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 05-39-02-B</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FC379012</t>
+          <t>KJN514-PI</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-07-03</t>
+          <t xml:space="preserve"> 05-25-06</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-18-02</t>
+          <t xml:space="preserve"> 04-50-03-B</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4158,17 +4158,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AC-21011M</t>
+          <t>FC120042</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-04</t>
+          <t xml:space="preserve"> 04-22-08</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4198,17 +4198,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BF-148-BL</t>
+          <t>KJC810M</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4218,17 +4218,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>FC120042</t>
+          <t>AC-21011M</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-22-08</t>
+          <t xml:space="preserve"> 04-07-04</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4238,57 +4238,57 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>KJC810M</t>
+          <t>BF-160A-1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>KJN514-PI</t>
+          <t>AB-41020</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-06</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-B</t>
+          <t xml:space="preserve"> 05-50-03-B</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AB-41020</t>
+          <t>FC170640</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-B</t>
+          <t xml:space="preserve"> 05-20-02</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4298,21 +4298,21 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BF-160A-1</t>
+          <t>KJN513-PI</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-06-06</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-50-03-A</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195">
@@ -4338,37 +4338,37 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>KJN513-PI</t>
+          <t>AB-32011-B</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-06-06</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>KJN512-BL</t>
+          <t>BF-160D</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-05</t>
+          <t xml:space="preserve"> 04-10-09</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4378,17 +4378,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>AB-32011-B</t>
+          <t>KJN512-BL</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 05-22-05</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-30-01-A</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4418,17 +4418,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AC-22005S</t>
+          <t>BF-136</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4438,17 +4438,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BF-136</t>
+          <t>AC-22005S</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -4458,17 +4458,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>NB-205G</t>
+          <t>DT-006A-1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-07</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -4498,17 +4498,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>DT-006A-1</t>
+          <t>BF-150-BL</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 04-04-09</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4518,17 +4518,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BF-150-BL</t>
+          <t>NB-205G</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-09</t>
+          <t xml:space="preserve"> 04-04-07</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-50-03-B</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4538,17 +4538,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>KJN514-BL</t>
+          <t>KJN503-BL</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 05-02-07</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-50-03-B</t>
+          <t xml:space="preserve"> 06-29-02-A</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4558,17 +4558,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>KJN503-BL</t>
+          <t>KJN514-BL</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-02-07</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-02-A</t>
+          <t xml:space="preserve"> 04-50-03-B</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4578,12 +4578,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BF-148-PI</t>
+          <t>BF-237B</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-08-06</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4598,17 +4598,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BF-14103-PI</t>
+          <t>BF-148-PI</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-51-03-A</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4698,37 +4698,37 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BF-160D</t>
+          <t>KJF613</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-09</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-42-01-A</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>KJF613</t>
+          <t>KJA307-BL</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-01-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4758,21 +4758,21 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>KJA307-BL</t>
+          <t>BF-14103-BL</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-10-04</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-53-03-B</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218">
@@ -4818,17 +4818,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>FC891418</t>
+          <t>KJB554-L-BL</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-03</t>
+          <t xml:space="preserve"> 05-38-07</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-03-A</t>
+          <t xml:space="preserve"> 05-09-02</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -4838,17 +4838,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>KJB554-L-BL</t>
+          <t>KJN515-BL</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-07</t>
+          <t xml:space="preserve"> 05-27-06</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-09-02</t>
+          <t xml:space="preserve"> 04-51-03-A</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -4858,17 +4858,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>KJN515-BL</t>
+          <t>FC891418</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-06</t>
+          <t xml:space="preserve"> 05-25-03</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-51-03-A</t>
+          <t xml:space="preserve"> 05-45-03-A</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -5038,17 +5038,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BF-237B</t>
+          <t>BF-239-PI</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-06</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-51-03-A</t>
+          <t xml:space="preserve"> 06-33-01-A</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -5058,21 +5058,21 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BF-239-PI</t>
+          <t>KJB554-S-WH</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-36-08</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-33-01-A</t>
+          <t xml:space="preserve"> 05-25-02-B</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -5098,37 +5098,37 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>KJB554-S-WH</t>
+          <t>FC1000-01BB</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-36-08</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-25-02-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>FC1000-01BB</t>
+          <t>FC120043</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 05-44-01-A</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -5138,57 +5138,57 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>FC120043</t>
+          <t>KJD200-M-PI</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-01-A</t>
+          <t xml:space="preserve"> 05-26-02-B</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>KJD200-M-PI</t>
+          <t>FC189102</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-26-02-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>KJA902</t>
+          <t>KJD200-S-PI</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-04</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-30-02-A</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -5218,17 +5218,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>FC189102</t>
+          <t>KJA902</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-09-04</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -5238,37 +5238,37 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>KJD200-S-PI</t>
+          <t>AC-21011L</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-12-07</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>CB-30001</t>
+          <t>KJB554-XL-PI</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-18-09</t>
+          <t xml:space="preserve"> 05-38-07</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-04-02</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -5278,17 +5278,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>KJB554-XL-PI</t>
+          <t>CB-30001</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-07</t>
+          <t xml:space="preserve"> 04-18-09</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-04-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -5298,17 +5298,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AC-21011L</t>
+          <t>FC574520</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-07</t>
+          <t xml:space="preserve"> 05-57-09</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-28-01-B</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -5338,17 +5338,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>FC574520</t>
+          <t>ABB-B001-24</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-57-09</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-01-B</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -5358,32 +5358,32 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ABB-B001-24</t>
+          <t>KJB551-PI</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 05-38-03</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 05-29-01-A</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>FC144501</t>
+          <t>FC144506</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5398,17 +5398,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BF-239-GR</t>
+          <t>LD101</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-04</t>
+          <t xml:space="preserve"> 06-41-09</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-31-01-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -5418,17 +5418,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>KJB551-PI</t>
+          <t>BF-239-GR</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-03</t>
+          <t xml:space="preserve"> 04-13-04</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-A</t>
+          <t xml:space="preserve"> 06-31-01-B</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -5438,17 +5438,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>FC144506</t>
+          <t>KJN507-PI</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 05-49-08</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-29-01-A</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -5458,17 +5458,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>KJN507-PI</t>
+          <t>FC144501</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-08</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-29-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -5478,37 +5478,37 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>LD101</t>
+          <t>KJP402-WH</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-41-09</t>
+          <t xml:space="preserve"> 04-12-09</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>KJP402-WH</t>
+          <t>DT006D-1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-09</t>
+          <t xml:space="preserve"> 04-15-06</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 06-12-02</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -5518,17 +5518,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PER-241</t>
+          <t>FC126012</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -5538,17 +5538,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>KJD200-L-PI</t>
+          <t>PER-241</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-10-08</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-31-02-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -5558,17 +5558,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>DT006D-1</t>
+          <t>KJD200-L-PI</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-06</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-12-02</t>
+          <t xml:space="preserve"> 05-31-02-A</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -5578,37 +5578,37 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>FC126012</t>
+          <t>BF-147-BL</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 06-36-02-A</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>KJB821T-PI</t>
+          <t>KJA901</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-04</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-38-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -5618,17 +5618,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>BF-147-BL</t>
+          <t>KJB821T-PI</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-46-04</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-36-02-A</t>
+          <t xml:space="preserve"> 05-38-02-A</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -5638,12 +5638,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>KJA901</t>
+          <t>AA-31014</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-07-07</t>
+          <t xml:space="preserve"> 04-09-06</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5658,37 +5658,37 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>AA-31014</t>
+          <t>DF-001</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-06</t>
+          <t xml:space="preserve"> 04-11-09</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-22-02</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>FC144512</t>
+          <t>BC-50006</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 04-09-08</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -5718,17 +5718,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BC-50006</t>
+          <t>FC144512</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-08</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -5738,17 +5738,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>DF-001</t>
+          <t>BC-30005</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-09</t>
+          <t xml:space="preserve"> 04-08-05</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-22-02</t>
+          <t xml:space="preserve"> 06-35-01-A</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -5758,7 +5758,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>BC-30005</t>
+          <t>ABB-B001-12</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5768,17 +5768,17 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-35-01-A</t>
+          <t xml:space="preserve"> 05-49-03-A</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>FC144511</t>
+          <t>FC1000-04</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 06-45-01-B</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -5798,7 +5798,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>FC1000-04</t>
+          <t>FC144511</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-45-01-B</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -5898,17 +5898,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ABB-B001-12</t>
+          <t>KJA247</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-05</t>
+          <t xml:space="preserve"> 04-10-06</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-03-A</t>
+          <t xml:space="preserve"> KTPD</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -5918,37 +5918,37 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>KJA247</t>
+          <t>FA-11002-L</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-06</t>
+          <t xml:space="preserve"> 05-56-03</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTPD</t>
+          <t xml:space="preserve"> 05-45-02-A</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>FC144508</t>
+          <t>AB-32012-O</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-40-08</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -5958,17 +5958,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AB-32012-O</t>
+          <t>FC120891</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 06-52-05</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-45-01-B</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -5978,17 +5978,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>FA-11002-L</t>
+          <t>FC144508</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-56-03</t>
+          <t xml:space="preserve"> 06-40-08</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -5998,7 +5998,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>FC120891</t>
+          <t>FC118036</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-45-01-B</t>
+          <t xml:space="preserve"> 05-60-02-B</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280">
@@ -6038,7 +6038,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FC220106</t>
+          <t>FC115512</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-03-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -6058,7 +6058,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>FC118036</t>
+          <t>FC220106</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-60-02-B</t>
+          <t xml:space="preserve"> 06-46-03-B</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -6078,7 +6078,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>FC122812</t>
+          <t>KJA1304-BL</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-61-02-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -6118,7 +6118,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>KJA1304-BL</t>
+          <t>FC122812</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-61-02-A</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -6158,37 +6158,37 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>FC115512</t>
+          <t>PLW13</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 06-28-02-A</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>KJ-F653-PI</t>
+          <t>FC144504</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-55-07</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-33-01-A</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -6198,17 +6198,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BA-10020-B</t>
+          <t>KJ-F653-PI</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-55-07</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-26-01-A</t>
+          <t xml:space="preserve"> 06-33-01-A</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -6218,17 +6218,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>KJF615</t>
+          <t>AE-20014</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-64-09</t>
+          <t xml:space="preserve"> 04-09-04</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-46-03-B</t>
+          <t xml:space="preserve"> 04-11-02</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -6238,17 +6238,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>FC574500</t>
+          <t>PLW12</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-54-07</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 06-44-01-B</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -6258,17 +6258,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PLW13</t>
+          <t>BA-10020-B</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-02-A</t>
+          <t xml:space="preserve"> 06-26-01-A</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -6278,17 +6278,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>FC144504</t>
+          <t>KJF615</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-64-09</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-05-02</t>
+          <t xml:space="preserve"> 05-46-03-B</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -6298,17 +6298,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>AE-20014</t>
+          <t>FC574500</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-04</t>
+          <t xml:space="preserve"> 05-54-07</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-02</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -6318,37 +6318,37 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>PLW12</t>
+          <t>KJF606</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-64-09</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-B</t>
+          <t xml:space="preserve"> 05-28-01-A</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>KJF804C</t>
+          <t>KJA1215-BL</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-15-07</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KTVS</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -6358,17 +6358,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>FC169612</t>
+          <t>KJB801W</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 05-32-01-A</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -6378,17 +6378,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>FC574522</t>
+          <t>KJF614</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-61-09</t>
+          <t xml:space="preserve"> 05-44-09</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-41-02-A</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -6398,17 +6398,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>FC574521</t>
+          <t>KJF804C</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-63-04</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> KTVS</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -6418,17 +6418,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>KJF614</t>
+          <t>FC574521</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-09</t>
+          <t xml:space="preserve"> 06-63-04</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-41-02-A</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -6438,17 +6438,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>KJB801W</t>
+          <t>GJW61</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 04-03-06</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-32-01-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -6458,17 +6458,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>KJB100-WH</t>
+          <t>FC154807</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 05-50-09</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-44-02-B</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -6478,17 +6478,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>FC154807</t>
+          <t>AA-12002</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-50-09</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-44-02-B</t>
+          <t xml:space="preserve"> 04-11-02</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -6498,17 +6498,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>AH-20009-GR</t>
+          <t>KJB100-WH</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-10-03</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-30-02-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -6518,17 +6518,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>KJA1215-BL</t>
+          <t>FC169612</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-15-07</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -6538,17 +6538,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>AA-12002</t>
+          <t>LG6082944</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 04-04-06</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-02</t>
+          <t xml:space="preserve"> 04-09-02</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -6558,17 +6558,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>LG6082944</t>
+          <t>FC574522</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-04-06</t>
+          <t xml:space="preserve"> 06-61-09</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-09-02</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -6578,17 +6578,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>GJW61</t>
+          <t>AH-20009-GR</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-06</t>
+          <t xml:space="preserve"> 04-10-03</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-30-02-A</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -6598,21 +6598,21 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>KJF606</t>
+          <t>KJA407-PI</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-64-09</t>
+          <t xml:space="preserve"> 06-61-08</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-01-A</t>
+          <t xml:space="preserve"> 05-34-02-B</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -6638,17 +6638,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ABB-FW001-BL</t>
+          <t>AH-20009-BL</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-58-07</t>
+          <t xml:space="preserve"> 06-57-03</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-26-02-B</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -6658,17 +6658,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BA-10019-B</t>
+          <t>KJA045-BL</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-07</t>
+          <t xml:space="preserve"> 06-57-08</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-01-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -6678,17 +6678,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>KJN830-WH</t>
+          <t>PER246</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-65-09</t>
+          <t xml:space="preserve"> 06-57-06</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -6698,17 +6698,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>KJA407-PI</t>
+          <t>BA-10019-M</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-61-08</t>
+          <t xml:space="preserve"> 06-62-09</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-34-02-B</t>
+          <t xml:space="preserve"> 05-27-02-A</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -6718,17 +6718,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>AB-42011-G</t>
+          <t>KJN830-WH</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-56-07</t>
+          <t xml:space="preserve"> 06-65-09</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-49-03-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -6738,17 +6738,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BA-10019-M</t>
+          <t>AH-20007-GR</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-62-09</t>
+          <t xml:space="preserve"> 06-57-03</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-27-02-A</t>
+          <t xml:space="preserve"> 06-32-01-B</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -6758,17 +6758,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>AH-20009-BL</t>
+          <t>AB-42011-G</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-03</t>
+          <t xml:space="preserve"> 06-56-07</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-49-03-A</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -6778,17 +6778,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>PER246</t>
+          <t>BA-10019-B</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-06</t>
+          <t xml:space="preserve"> 06-57-07</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-28-01-B</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -6798,17 +6798,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>KJA045-BL</t>
+          <t>ABB-FW001-BL</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-08</t>
+          <t xml:space="preserve"> 06-58-07</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 06-26-02-B</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -6818,17 +6818,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>AH-20007-GR</t>
+          <t>DRD92</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-57-03</t>
+          <t xml:space="preserve"> 09-03-04</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-32-01-B</t>
+          <t xml:space="preserve"> 05-29-01-B</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -6838,17 +6838,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DRD92</t>
+          <t>KJC453-GR</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 09-03-04</t>
+          <t xml:space="preserve"> 06-46-04</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-B</t>
+          <t xml:space="preserve"> 06-37-02-A</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -6878,17 +6878,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>KJF603</t>
+          <t>PER-245</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-11-03</t>
+          <t xml:space="preserve"> 04-08-07</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-42-02-A</t>
+          <t xml:space="preserve"> 04-53-03-A</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -6898,17 +6898,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>FC154421</t>
+          <t>KJF603</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-01-A</t>
+          <t xml:space="preserve"> 06-42-02-A</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -6918,17 +6918,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>FC574511</t>
+          <t>BA-10019-G</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-12-05</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-30-01-A</t>
+          <t xml:space="preserve"> 06-28-02-A</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -6938,17 +6938,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>FC169624</t>
+          <t>KJF602</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-09</t>
+          <t xml:space="preserve"> 04-12-09</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-54-03-B</t>
+          <t xml:space="preserve"> 06-34-01-A</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -6958,17 +6958,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DGH82</t>
+          <t>FC154421</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-44-08</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-03-02</t>
+          <t xml:space="preserve"> 06-44-01-A</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -6978,17 +6978,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>CGM43</t>
+          <t>TOP-193A-BL</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-28-06</t>
+          <t xml:space="preserve"> 04-20-09</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-29-01-B</t>
+          <t xml:space="preserve"> 04-52-03-B</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -6998,17 +6998,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PLW28</t>
+          <t>FC220081</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-23-09</t>
+          <t xml:space="preserve"> 04-13-03</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 05-52-02-B</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -7038,17 +7038,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>PER-245</t>
+          <t>PLW28</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-08-07</t>
+          <t xml:space="preserve"> 05-23-09</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-53-03-A</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -7058,17 +7058,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>TOP-193A-BL</t>
+          <t>CGM43</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-20-09</t>
+          <t xml:space="preserve"> 05-28-06</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-52-03-B</t>
+          <t xml:space="preserve"> 05-29-01-B</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -7078,17 +7078,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>KJC453-GR</t>
+          <t>DGH82</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-46-04</t>
+          <t xml:space="preserve"> 06-44-08</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-37-02-A</t>
+          <t xml:space="preserve"> 04-03-02</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -7098,17 +7098,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>FC220081</t>
+          <t>FC169624</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-13-03</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-52-02-B</t>
+          <t xml:space="preserve"> 04-54-03-B</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -7118,17 +7118,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>KJF602</t>
+          <t>FC574511</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-09</t>
+          <t xml:space="preserve"> 06-44-09</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-34-01-A</t>
+          <t xml:space="preserve"> 05-30-01-A</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -7138,37 +7138,37 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BA-10019-G</t>
+          <t>AC-21015-S</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-12-05</t>
+          <t xml:space="preserve"> 04-02-04</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-28-02-A</t>
+          <t xml:space="preserve"> 05-05-01</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>FC170640</t>
+          <t>KJA209-S</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-52-05</t>
+          <t xml:space="preserve"> 04-11-03</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-20-02</t>
+          <t xml:space="preserve"> 04-05-02</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -7178,17 +7178,17 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>LD130-F-LIB</t>
+          <t>KJA228-OR</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-05</t>
+          <t xml:space="preserve"> 04-07-07</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-41-02-B</t>
+          <t xml:space="preserve"> 05-06-01</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -7198,7 +7198,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>LD130-F-YEL</t>
+          <t>LD130-F-BRO</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-02-B</t>
+          <t xml:space="preserve"> 05-40-01-B</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -7218,17 +7218,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>AC-21015-S</t>
+          <t>LD130-F-BLU</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-02-04</t>
+          <t xml:space="preserve"> 04-02-05</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-05-01</t>
+          <t xml:space="preserve"> 05-39-02-B</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -7238,7 +7238,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>LD130-F-BLU</t>
+          <t>LD130-F-LIB</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-39-02-B</t>
+          <t xml:space="preserve"> 05-41-02-B</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -7258,7 +7258,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>LD130-F-BRO</t>
+          <t>LD130-F-YEL</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-40-01-B</t>
+          <t xml:space="preserve"> 05-40-02-B</t>
         </is>
       </c>
       <c r="D342" t="n">
